--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
   <si>
     <t>index</t>
   </si>
@@ -38,6 +38,138 @@
   </si>
   <si>
     <t>arg7</t>
+  </si>
+  <si>
+    <t>SetScreen</t>
+  </si>
+  <si>
+    <t>FadeIn</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>ShowBackGround</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>FadeOut</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>ShowFrontGround</t>
+  </si>
+  <si>
+    <t>PlaySound</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>ShowRole</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>ShayHead</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>我回來了。</t>
+  </si>
+  <si>
+    <t>WaitInput</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>theatrical_box_reel_text_bottom</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>city01</t>
+  </si>
+  <si>
+    <t>（又是個一如往常，忙碌的日子。）</t>
+  </si>
+  <si>
+    <t>city02</t>
+  </si>
+  <si>
+    <t>（看著屋內相同的擺設，還有窗外一成不變的水泥叢林……）</t>
+  </si>
+  <si>
+    <t>（腦中突然浮現了一個想像——）</t>
+  </si>
+  <si>
+    <t>start_story2</t>
+  </si>
+  <si>
+    <t>countryside</t>
+  </si>
+  <si>
+    <t>（閑靜舒適的田野穿梭著可愛的動物，\n還有現摘的新鮮蔬果可以品嚐……）</t>
+  </si>
+  <si>
+    <t>真想去度假啊～</t>
+  </si>
+  <si>
+    <t>fairy</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>沒問題！</t>
+  </si>
+  <si>
+    <t>咦？</t>
+  </si>
+  <si>
+    <t>你的願望，就讓偉大的農場精靈來實現吧！</t>
+  </si>
+  <si>
+    <t>等等、我沒許願——</t>
+  </si>
+  <si>
+    <t>start_story3</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>{vpunch=10,0.5}哇啊啊啊啊～～</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -76,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -85,6 +217,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,6 +445,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="3" max="3" width="30.88"/>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col customWidth="1" min="5" max="5" width="65.38"/>
+    <col customWidth="1" min="6" max="6" width="14.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -335,71 +486,652 @@
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>1.0</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>1.0</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>1.0</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>1.0</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
-        <v>1.0</v>
+      <c r="A8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>1.0</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>1.0</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>1.0</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>1.0</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>1.0</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>1.0</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>1.0</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>index</t>
   </si>
@@ -85,91 +85,97 @@
     <t>Show</t>
   </si>
   <si>
+    <t>仿生人A</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>你現在要出發去收集維修飛船的零件了，是吧？</t>
+  </si>
+  <si>
+    <t>WaitInput</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>theatrical_box_reel_text_bottom</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>city01</t>
+  </si>
+  <si>
+    <t>就算我不是Lambda-42系列，我也看得出來，這艘船在航入太陽系前就會自動解體</t>
+  </si>
+  <si>
+    <t>city02</t>
+  </si>
+  <si>
+    <t>你還在等什麼呢？收整好裝備後就出發吧</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>（腦中突然浮現了一個想像——）</t>
+  </si>
+  <si>
+    <t>start_story2</t>
+  </si>
+  <si>
+    <t>countryside</t>
+  </si>
+  <si>
+    <t>（閑靜舒適的田野穿梭著可愛的動物，\n還有現摘的新鮮蔬果可以品嚐……）</t>
+  </si>
+  <si>
+    <t>真想去度假啊～</t>
+  </si>
+  <si>
+    <t>fairy</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>沒問題！</t>
+  </si>
+  <si>
+    <t>咦？</t>
+  </si>
+  <si>
+    <t>你的願望，就讓偉大的農場精靈來實現吧！</t>
+  </si>
+  <si>
+    <t>等等、我沒許願——</t>
+  </si>
+  <si>
+    <t>start_story3</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>{vpunch=10,0.5}哇啊啊啊啊～～</t>
+  </si>
+  <si>
     <t>ShayHead</t>
-  </si>
-  <si>
-    <t>Once</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>Talk</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>我回來了。</t>
-  </si>
-  <si>
-    <t>WaitInput</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>theatrical_box_reel_text_bottom</t>
-  </si>
-  <si>
-    <t>Act</t>
-  </si>
-  <si>
-    <t>city01</t>
-  </si>
-  <si>
-    <t>（又是個一如往常，忙碌的日子。）</t>
-  </si>
-  <si>
-    <t>city02</t>
-  </si>
-  <si>
-    <t>（看著屋內相同的擺設，還有窗外一成不變的水泥叢林……）</t>
-  </si>
-  <si>
-    <t>（腦中突然浮現了一個想像——）</t>
-  </si>
-  <si>
-    <t>start_story2</t>
-  </si>
-  <si>
-    <t>countryside</t>
-  </si>
-  <si>
-    <t>（閑靜舒適的田野穿梭著可愛的動物，\n還有現摘的新鮮蔬果可以品嚐……）</t>
-  </si>
-  <si>
-    <t>真想去度假啊～</t>
-  </si>
-  <si>
-    <t>fairy</t>
-  </si>
-  <si>
-    <t>？？？</t>
-  </si>
-  <si>
-    <t>沒問題！</t>
-  </si>
-  <si>
-    <t>咦？</t>
-  </si>
-  <si>
-    <t>你的願望，就讓偉大的農場精靈來實現吧！</t>
-  </si>
-  <si>
-    <t>等等、我沒許願——</t>
-  </si>
-  <si>
-    <t>start_story3</t>
-  </si>
-  <si>
-    <t>shake</t>
-  </si>
-  <si>
-    <t>{vpunch=10,0.5}哇啊啊啊啊～～</t>
-  </si>
-  <si>
-    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
     <col customWidth="1" min="2" max="2" width="17.63"/>
     <col customWidth="1" min="3" max="3" width="30.88"/>
     <col customWidth="1" min="4" max="4" width="15.38"/>
-    <col customWidth="1" min="5" max="5" width="65.38"/>
+    <col customWidth="1" min="5" max="5" width="67.88"/>
     <col customWidth="1" min="6" max="6" width="14.38"/>
   </cols>
   <sheetData>
@@ -612,10 +618,10 @@
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -696,10 +702,10 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -732,10 +738,10 @@
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -747,67 +753,57 @@
         <v>1.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3">
         <v>1.0</v>
@@ -816,153 +812,151 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
@@ -971,10 +965,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>30</v>
@@ -982,156 +976,185 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.0</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="4">
-        <v>1.0</v>
+      <c r="A35" s="2">
+        <v>2.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
   <si>
     <t>index</t>
   </si>
@@ -79,45 +79,48 @@
     <t>ShowRole</t>
   </si>
   <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>仿生人A</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>你現在要出發去收集維修飛船的零件了，是吧？</t>
+  </si>
+  <si>
+    <t>WaitInput</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>theatrical_box_reel_text_bottom</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>city01</t>
+  </si>
+  <si>
     <t>Left</t>
   </si>
   <si>
-    <t>Show</t>
-  </si>
-  <si>
-    <t>仿生人A</t>
-  </si>
-  <si>
-    <t>Once</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>Talk</t>
-  </si>
-  <si>
-    <t>少女</t>
-  </si>
-  <si>
-    <t>你現在要出發去收集維修飛船的零件了，是吧？</t>
-  </si>
-  <si>
-    <t>WaitInput</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>theatrical_box_reel_text_bottom</t>
-  </si>
-  <si>
-    <t>Act</t>
-  </si>
-  <si>
-    <t>city01</t>
-  </si>
-  <si>
     <t>就算我不是Lambda-42系列，我也看得出來，這艘船在航入太陽系前就會自動解體</t>
   </si>
   <si>
@@ -176,13 +179,28 @@
   </si>
   <si>
     <t>ShayHead</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>該死的....這場實驗已經徹底失控了</t>
+  </si>
+  <si>
+    <t>暴走的機器人互相殘殺，而我可憐的同僚來不及逃離那場地獄</t>
+  </si>
+  <si>
+    <t>至少，實驗的真相不能公開於眾</t>
+  </si>
+  <si>
+    <t>「愛之芯」，一定得回收於地球</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -199,6 +217,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -233,7 +255,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -591,7 +619,7 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -615,7 +643,7 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -635,7 +663,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="3">
@@ -700,13 +728,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>30</v>
@@ -723,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -736,13 +764,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>30</v>
@@ -756,10 +784,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -780,13 +808,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>30</v>
@@ -818,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
@@ -854,8 +882,8 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
+      <c r="D23" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -868,13 +896,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>30</v>
@@ -888,13 +916,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>30</v>
@@ -929,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -942,13 +970,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
@@ -962,13 +990,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>30</v>
@@ -985,7 +1013,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -998,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>30</v>
@@ -1018,13 +1046,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -1038,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
@@ -1075,7 +1103,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1088,13 +1116,13 @@
         <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>30</v>
@@ -1122,13 +1150,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -1155,6 +1183,285 @@
         <v>1.0</v>
       </c>
       <c r="F38" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="57">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="E60" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="69">
   <si>
     <t>index</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>「愛之芯」，一定得回收於地球</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>你應該也注意到了，我暫時改裝了飛船的能量引擎</t>
+  </si>
+  <si>
+    <t>收集夠多的素材，我就能使用能量引擎升級你的性能，協助你打倒外頭的敵人</t>
+  </si>
+  <si>
+    <t>功能越強，完成任務的機率越高，所有的機器人都是這樣</t>
+  </si>
+  <si>
+    <t>首先前往溫室吧，那裏可能有備份的氧氣循環機</t>
+  </si>
+  <si>
+    <t>原則上我們不需要氧氣，但這部飛船原意是設計給人類搭乘，所以氧氣循環機是重要的設施</t>
+  </si>
+  <si>
+    <t>可惜，要是這份飛船的設計再好一點，就可以忽略這份構造，不必修復它</t>
+  </si>
+  <si>
+    <t>設計師或許從來沒想過搭乘飛船的「人」不需要氧氣吧，呵呵</t>
   </si>
 </sst>
 </file>
@@ -230,13 +254,23 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -263,6 +297,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,17 +1494,421 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
     <row r="57">
-      <c r="E57" s="8"/>
+      <c r="A57" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58">
-      <c r="E58" s="8"/>
+      <c r="A58" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="59">
-      <c r="E59" s="8"/>
+      <c r="A59" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60">
-      <c r="E60" s="8"/>
+      <c r="A60" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" s="8"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="8"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81">
+      <c r="E81" s="8"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82">
+      <c r="E82" s="8"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="118">
   <si>
     <t>index</t>
   </si>
@@ -133,52 +133,7 @@
     <t>Out</t>
   </si>
   <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>（腦中突然浮現了一個想像——）</t>
-  </si>
-  <si>
-    <t>start_story2</t>
-  </si>
-  <si>
-    <t>countryside</t>
-  </si>
-  <si>
-    <t>（閑靜舒適的田野穿梭著可愛的動物，\n還有現摘的新鮮蔬果可以品嚐……）</t>
-  </si>
-  <si>
-    <t>真想去度假啊～</t>
-  </si>
-  <si>
-    <t>fairy</t>
-  </si>
-  <si>
-    <t>？？？</t>
-  </si>
-  <si>
-    <t>沒問題！</t>
-  </si>
-  <si>
-    <t>咦？</t>
-  </si>
-  <si>
-    <t>你的願望，就讓偉大的農場精靈來實現吧！</t>
-  </si>
-  <si>
-    <t>等等、我沒許願——</t>
-  </si>
-  <si>
-    <t>start_story3</t>
-  </si>
-  <si>
-    <t>shake</t>
-  </si>
-  <si>
-    <t>{vpunch=10,0.5}哇啊啊啊啊～～</t>
-  </si>
-  <si>
-    <t>ShayHead</t>
+    <t>Delay</t>
   </si>
   <si>
     <t>???</t>
@@ -196,9 +151,6 @@
     <t>「愛之芯」，一定得回收於地球</t>
   </si>
   <si>
-    <t>Delay</t>
-  </si>
-  <si>
     <t>你應該也注意到了，我暫時改裝了飛船的能量引擎</t>
   </si>
   <si>
@@ -218,13 +170,209 @@
   </si>
   <si>
     <t>設計師或許從來沒想過搭乘飛船的「人」不需要氧氣吧，呵呵</t>
+  </si>
+  <si>
+    <t>看起來你成功完成第一項任務了</t>
+  </si>
+  <si>
+    <t>這就是機器人瘋狂的原因，「愛之芯」原始檔案，代號「自我」</t>
+  </si>
+  <si>
+    <t>根據博士的指令，我必須要讀取所有的「愛之芯」，並返回地球，對吧？</t>
+  </si>
+  <si>
+    <t>你不用擔心，我是S-14v9系列，不會如同其他報廢品一般攻擊你，快讓我讀取這份內容</t>
+  </si>
+  <si>
+    <t>這就是......「自我」.......現在奇怪的指令不停出現在我的作業系統</t>
+  </si>
+  <si>
+    <t>你不用擔心，這之中並沒有攻擊你的指令</t>
+  </si>
+  <si>
+    <t>「我與其他S-14v9系列不同」，這就是愛之芯對我不停重複的話</t>
+  </si>
+  <si>
+    <t>你是問，在你離開的這段時間，飛船有發生什麼事嗎？</t>
+  </si>
+  <si>
+    <t>意外地，他們似乎對這塊地方不感興趣，所以我也沒有遇到危險</t>
+  </si>
+  <si>
+    <t>容克斯博士提出的假說：「這次的機器人暴走，是因為愛給予的空虛，使他們渴望奪得其他的愛之芯，使自己完整」</t>
+  </si>
+  <si>
+    <t>如果這個假說成立，他們應該只對擁有其他「愛之芯」的機器人感興趣</t>
+  </si>
+  <si>
+    <t>不過，如果他們知道「自我」的原始檔案在這裡，情況就不一樣了</t>
+  </si>
+  <si>
+    <t>仔細想想還真的有點可怕，你還是盡早回來好了！</t>
+  </si>
+  <si>
+    <t>既然氧氣循環機已經修復完畢了，下一站就是設備室，我們要處理水的問題</t>
+  </si>
+  <si>
+    <t>水循環系統不論是對飛船還是對我們，都是重要的設施</t>
+  </si>
+  <si>
+    <t>當然，作為優秀的S-14v9系列，不對，是最優秀的維修機器人，我會利用你帶回來的氧氣供應機幫你升級裝備</t>
+  </si>
+  <si>
+    <t>收集更多素材，我會讓你變得更強</t>
+  </si>
+  <si>
+    <t>哇喔，你成功完成任務了，太好了</t>
+  </si>
+  <si>
+    <t>果然和你搭檔是正確的選擇，你表現得真的太出色了</t>
+  </si>
+  <si>
+    <t>這次的是「美」的「機器人之芯」嗎？我覺得那些設備室的機器人都很怪，希望芯片不會對我造成奇怪的影響</t>
+  </si>
+  <si>
+    <t>比起「自我」，這是一顆很安靜的芯片</t>
+  </si>
+  <si>
+    <t>但在我的迴路深處，似乎有股默默燃燒的火焰</t>
+  </si>
+  <si>
+    <t>啊啊，別突然貼過來啊，我不是說我要燒起來的意思</t>
+  </si>
+  <si>
+    <t>這一定是某種能量或是未知的動力吧，無論如何，它讓我的心情很不錯！</t>
+  </si>
+  <si>
+    <t>據說設備室的機器人最脫離「理性」的範疇</t>
+  </si>
+  <si>
+    <t>紀載中寫著，他們是最早脫離命令，令研究者最印象深刻的一群機器人</t>
+  </si>
+  <si>
+    <t>在命令之下，展現了超越命令之外的「使命感」，甚至開始了宗教</t>
+  </si>
+  <si>
+    <t xml:space="preserve">對完美達成任務的渴望，反而加速了他們的暴走，他們開始剷除那些不完美的元素.......例如「人類」
+</t>
+  </si>
+  <si>
+    <t>追求完美的一群機器人卻反而離機器人的道路越來越遠，真是太諷刺了</t>
+  </si>
+  <si>
+    <t>這台渦輪裝置雖然老舊，但還算是穩定</t>
+  </si>
+  <si>
+    <t>在天才維修機器少女的巧手下，你很快就能重獲新生囉！</t>
+  </si>
+  <si>
+    <t>對了！下個地點是軍械室，我們要為飛船裝上能量砲，抵抗太空中的威脅</t>
+  </si>
+  <si>
+    <t>那些把控軍械室的機器人一定比之前更難對付，你需要我到場支援嗎？</t>
+  </si>
+  <si>
+    <t>啊啊啊啊！別摸我的頭啊，不行就不行嘛！</t>
+  </si>
+  <si>
+    <t>真的是太驚人了，你是最不像機器人的機器人</t>
+  </si>
+  <si>
+    <t>只靠自己一人就回收了三個「愛之芯」，這個作弊般的性能是哪來的？</t>
+  </si>
+  <si>
+    <t>不對，因為你身邊有天才美少女維修技師輔助，原來如此，我們簡直是最強的存在</t>
+  </si>
+  <si>
+    <t>又一個愛之芯，「憧憬」的芯片，交給你幫我安裝了！夥伴！</t>
+  </si>
+  <si>
+    <t>「憧憬」，意思是對某件事有強烈的情懷...</t>
+  </si>
+  <si>
+    <t>讀取完這顆芯片之後，以往的恐懼好像消散了</t>
+  </si>
+  <si>
+    <t>我的憧憬，一定就是我們兩個能夠完成任務，將芯片返回給地球上的博士</t>
+  </si>
+  <si>
+    <t>一想到這，無比的幸福感就流過我的全身，這都是多虧了你，最強的夥伴！</t>
+  </si>
+  <si>
+    <t>最後一戰就要到來了，我會利用你帶回來的能量砲，讓你輕而易舉打倒那些傢伙，我們一起返回地球吧！</t>
+  </si>
+  <si>
+    <t>根據紀載，沒有任何一位機器人曾讀取超過三個芯片以上，雖然實驗過同時加載兩個芯片的機器人，但那些機器人馬上就違反了命令，成為了報廢品</t>
+  </si>
+  <si>
+    <t>即使現在，我也絲毫不會想去攻擊外頭的機器人，奪取他們的芯片</t>
+  </si>
+  <si>
+    <t>然而，如果你被抓住，只剩下我一個機器人，而我必須得完成使命的話．．．</t>
+  </si>
+  <si>
+    <t>你可不能給我被抓住喔！知道了嗎！我是為了確保任務完成，才不是在擔心你，哼</t>
+  </si>
+  <si>
+    <t>能量炮...真是嘆為觀止的毀滅性</t>
+  </si>
+  <si>
+    <t>這個與你同樣以戰鬥為目的製作出的武器，有著和你相當高的相容性，一定能讓你的性能帶來飛躍性的提升</t>
+  </si>
+  <si>
+    <t>大手改造要開始了！別害怕，我不會對你怎樣的，只是可能會麻而已！</t>
+  </si>
+  <si>
+    <t>別逃啊！成為我天才少女科學家的結晶吧，成為打倒一切的存在！哈哈哈哈～</t>
+  </si>
+  <si>
+    <t>暴走機器人裏頭，好像也有維修機器人</t>
+  </si>
+  <si>
+    <t>意思說，如果我也會用槍的話，能不能和你一起出去冒險啊，你可以教我嗎</t>
+  </si>
+  <si>
+    <t>什麼？太危險？不會用槍才危險吧，我拿著槍biubiubiu多帥啊</t>
+  </si>
+  <si>
+    <t>不是不是，我是為了加速任務的進行，才不是把槍當玩具在玩，</t>
+  </si>
+  <si>
+    <t>等等等等！不要靠近我的漫畫櫃！我的心靈泉源啊！</t>
+  </si>
+  <si>
+    <t>你回來了，我們的任務完成了！</t>
+  </si>
+  <si>
+    <t>我現在心裡充斥著難以形容的能量，這就是「幸福」嗎？</t>
+  </si>
+  <si>
+    <t>快點，讓我讀取最後一片芯片</t>
+  </si>
+  <si>
+    <t>「感同身受」．．．它使所有機器人的感受都傳入我的體內</t>
+  </si>
+  <si>
+    <t>它們的自我、它們的美、它們的憧憬</t>
+  </si>
+  <si>
+    <t>這些機器人曾經感受過的幸福，以及接踵而至的空虛</t>
+  </si>
+  <si>
+    <t>它們不是報廢品，這場實驗意外的成功！我們機器人確實能夠感受「愛」</t>
+  </si>
+  <si>
+    <t>博士一定會很開心！這一切的犧牲都不是白費的。只要將我這個成功的個體送回地球，就可以證明一切</t>
+  </si>
+  <si>
+    <t>準備好出發就告訴我一聲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -245,13 +393,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -270,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -292,9 +451,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,6 +462,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,77 +1015,55 @@
       <c r="A19" s="2">
         <v>2.0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
+      <c r="C19" s="5">
         <v>2.0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.0</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -925,15 +1071,15 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
@@ -941,11 +1087,11 @@
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>44</v>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>30</v>
@@ -953,93 +1099,79 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>49</v>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>30</v>
@@ -1047,7 +1179,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
@@ -1056,14 +1188,14 @@
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -1071,11 +1203,11 @@
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>50</v>
+      <c r="D31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>30</v>
@@ -1083,181 +1215,164 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1.0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
         <v>2.0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1.0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>22</v>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -1265,7 +1380,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
@@ -1274,14 +1389,14 @@
         <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
@@ -1292,88 +1407,87 @@
       <c r="D43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>36</v>
+      <c r="E43" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="A46" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>22</v>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>30</v>
@@ -1381,7 +1495,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>18</v>
@@ -1390,14 +1504,14 @@
         <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
@@ -1406,509 +1520,2639 @@
         <v>35</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="A55" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>7.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
+      <c r="C62" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>38</v>
+      <c r="E62" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>35</v>
+      <c r="C78" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" s="8"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80">
-      <c r="E80" s="8"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81">
-      <c r="E81" s="8"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82">
-      <c r="E82" s="8"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="F95" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="13"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145">
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J189" s="7"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="J190" s="7"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="J192" s="10"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="J193" s="10"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J194" s="7"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="J195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J196" s="7"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="J197" s="7"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="J199" s="14"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="171">
   <si>
     <t>index</t>
   </si>
@@ -136,25 +136,43 @@
     <t>Delay</t>
   </si>
   <si>
+    <t>......到目前為止，計畫的第一步算是達成了，我們躡手躡腳地潛行了兩個禮拜，總算找到了一艘飛船</t>
+  </si>
+  <si>
+    <t>壞消息是，這艘船似乎在航入太陽系前就會自動解體，燃料似乎也撐不到最近的太空站點補給</t>
+  </si>
+  <si>
+    <t>博士下達的指令是「收集愛之芯，返回地球。」所以無論如何都要先把飛船修好才行</t>
+  </si>
+  <si>
+    <t>那麼，照你安排的計畫，我會在這裡修理飛船並擔任你的維修技師，而你必須要一邊收集修復飛船的材料，一邊回收愛之芯，沒錯吧</t>
+  </si>
+  <si>
+    <t>準備好就從大門出發吧，我不認為博士還對機器人剩下多少耐心，這是我們證明自己的最後機會了</t>
+  </si>
+  <si>
     <t>???</t>
   </si>
   <si>
     <t>該死的....這場實驗已經徹底失控了</t>
   </si>
   <si>
-    <t>暴走的機器人互相殘殺，而我可憐的同僚來不及逃離那場地獄</t>
-  </si>
-  <si>
-    <t>至少，實驗的真相不能公開於眾</t>
-  </si>
-  <si>
-    <t>「愛之芯」，一定得回收於地球</t>
-  </si>
-  <si>
-    <t>你應該也注意到了，我暫時改裝了飛船的能量引擎</t>
-  </si>
-  <si>
-    <t>收集夠多的素材，我就能使用能量引擎升級你的性能，協助你打倒外頭的敵人</t>
+    <t>暴走的機器人四處殺戮，而我可憐的同僚來不及逃離那場地獄</t>
+  </si>
+  <si>
+    <t>不行，我不容許科技的成果被如此糟蹋</t>
+  </si>
+  <si>
+    <t>至少，實驗的樣本─「愛之芯」，一定得回收於地球，</t>
+  </si>
+  <si>
+    <t>「任務失敗的機器人，只有報廢這個選項」，這句話，你應該沒遺忘吧</t>
+  </si>
+  <si>
+    <t>你有注意到那顆紅寶石嗎，那是飛船的能量引擎</t>
+  </si>
+  <si>
+    <t>我會使用那顆引擎來升級你的效能，你只要收集夠多的素材，協助你打倒外頭的敵人</t>
   </si>
   <si>
     <t>功能越強，完成任務的機率越高，所有的機器人都是這樣</t>
@@ -172,10 +190,22 @@
     <t>設計師或許從來沒想過搭乘飛船的「人」不需要氧氣吧，呵呵</t>
   </si>
   <si>
-    <t>看起來你成功完成第一項任務了</t>
-  </si>
-  <si>
-    <t>這就是機器人瘋狂的原因，「愛之芯」原始檔案，代號「自我」</t>
+    <t>果然現有的裝備仍無法完成任務嗎</t>
+  </si>
+  <si>
+    <t>但只要你持續蒐集金屬素材，你就越可能完成任務</t>
+  </si>
+  <si>
+    <t>請不要放棄你的任務，這次的機器人暴走事件，解開謎團的鑰匙就握在那群「報廢品」上</t>
+  </si>
+  <si>
+    <t>我們能成為人類的助力，我有預感，我們能使人類再相信我們一次</t>
+  </si>
+  <si>
+    <t>看起來你成功回收第一枚芯片了</t>
+  </si>
+  <si>
+    <t>原來如此，這就是機器人瘋狂的原因，「愛之芯」原始檔案─代號「自我」</t>
   </si>
   <si>
     <t>根據博士的指令，我必須要讀取所有的「愛之芯」，並返回地球，對吧？</t>
@@ -184,43 +214,64 @@
     <t>你不用擔心，我是S-14v9系列，不會如同其他報廢品一般攻擊你，快讓我讀取這份內容</t>
   </si>
   <si>
-    <t>這就是......「自我」.......現在奇怪的指令不停出現在我的作業系統</t>
-  </si>
-  <si>
-    <t>你不用擔心，這之中並沒有攻擊你的指令</t>
+    <t>這就是......屬於機器人的「自我」.......現在奇怪的指令不停出現在我的作業系統</t>
+  </si>
+  <si>
+    <t>你不用擔心，這之中並沒有攻擊你的指令，只有一句不斷重複的命令</t>
   </si>
   <si>
     <t>「我與其他S-14v9系列不同」，這就是愛之芯對我不停重複的話</t>
   </si>
   <si>
-    <t>你是問，在你離開的這段時間，飛船有發生什麼事嗎？</t>
-  </si>
-  <si>
-    <t>意外地，他們似乎對這塊地方不感興趣，所以我也沒有遇到危險</t>
-  </si>
-  <si>
-    <t>容克斯博士提出的假說：「這次的機器人暴走，是因為愛給予的空虛，使他們渴望奪得其他的愛之芯，使自己完整」</t>
-  </si>
-  <si>
-    <t>如果這個假說成立，他們應該只對擁有其他「愛之芯」的機器人感興趣</t>
-  </si>
-  <si>
-    <t>不過，如果他們知道「自我」的原始檔案在這裡，情況就不一樣了</t>
-  </si>
-  <si>
-    <t>仔細想想還真的有點可怕，你還是盡早回來好了！</t>
+    <t>容克斯博士提出的假說：「機器人暴走的原因，是芯片給予機器人愛的能力，而意外地同時機器人感受空虛的能力。」</t>
+  </si>
+  <si>
+    <t>如果博士是對的，我應該也會漸漸學會「愛」，並漸漸感受到空虛吧，關於這點，你怎麼想？</t>
+  </si>
+  <si>
+    <t>開玩笑的，我會維持機器人的身分，完美地完成任務的</t>
+  </si>
+  <si>
+    <t>「我與其他S-14v9系列不同」，我也認同這句話，我絕不會因此暴走的，你會相信我的，對吧？</t>
+  </si>
+  <si>
+    <t>那些暴走機器人到底長什麼樣子啊？</t>
+  </si>
+  <si>
+    <t>他們都是一群無視指令、不受控制，往著你身體上狂衝的機器人嗎？</t>
+  </si>
+  <si>
+    <t>還是我也撲到你身體上，體驗一次暴走機器人？</t>
+  </si>
+  <si>
+    <t>開玩笑的啦！我可是接收博士的指令，有重大任務的機器人，怎麼可能做那種事</t>
+  </si>
+  <si>
+    <t>你怎麼看起來挺失落的樣子？</t>
+  </si>
+  <si>
+    <t>我在你出去的時候搜索了人類留下來的紀錄，像這個影片</t>
+  </si>
+  <si>
+    <t>「哈-&gt;哈-&gt;哈-&gt;哈」、「PekoPeko」，不知道為什麼，人類好像很喜歡這部影片</t>
+  </si>
+  <si>
+    <t>原來愛會讓人變得這麼不知所謂，讓機器人學習「愛」真是一個奇怪的計畫</t>
+  </si>
+  <si>
+    <t>什麼？你說，我也可以模仿看看嗎？</t>
+  </si>
+  <si>
+    <t>你好奇怪喔peko</t>
   </si>
   <si>
     <t>既然氧氣循環機已經修復完畢了，下一站就是設備室，我們要處理水的問題</t>
   </si>
   <si>
-    <t>水循環系統不論是對飛船還是對我們，都是重要的設施</t>
-  </si>
-  <si>
-    <t>當然，作為優秀的S-14v9系列，不對，是最優秀的維修機器人，我會利用你帶回來的氧氣供應機幫你升級裝備</t>
-  </si>
-  <si>
-    <t>收集更多素材，我會讓你變得更強</t>
+    <t>水循環系統不論是對飛船還是對我們，都是重要的設施，</t>
+  </si>
+  <si>
+    <t>當然，作為S-14v9系列，不對，是最優秀的S-14v9，我會利用氧氣循環機讓你突破萬難</t>
   </si>
   <si>
     <t>哇喔，你成功完成任務了，太好了</t>
@@ -229,10 +280,10 @@
     <t>果然和你搭檔是正確的選擇，你表現得真的太出色了</t>
   </si>
   <si>
-    <t>這次的是「美」的「機器人之芯」嗎？我覺得那些設備室的機器人都很怪，希望芯片不會對我造成奇怪的影響</t>
-  </si>
-  <si>
-    <t>比起「自我」，這是一顆很安靜的芯片</t>
+    <t>這次的是「美」的「愛之芯」嗎？我覺得那些設備室的機器人都很怪，希望芯片不會對我造成奇怪的影響</t>
+  </si>
+  <si>
+    <t>嗯嗯...比起「自我」，這是一顆很安靜的芯片</t>
   </si>
   <si>
     <t>但在我的迴路深處，似乎有股默默燃燒的火焰</t>
@@ -241,7 +292,25 @@
     <t>啊啊，別突然貼過來啊，我不是說我要燒起來的意思</t>
   </si>
   <si>
-    <t>這一定是某種能量或是未知的動力吧，無論如何，它讓我的心情很不錯！</t>
+    <t>啊，诶，我怎麼臉紅了？</t>
+  </si>
+  <si>
+    <t>總之，我沒什麼大事，你別再做出什麼奇怪的舉動害我失控了！</t>
+  </si>
+  <si>
+    <t>暴走機器人裏頭，好像也有維修機器人。</t>
+  </si>
+  <si>
+    <t>意思說，如果我也會用槍的話，能不能和你一起出去冒險啊，你可以教我嗎？</t>
+  </si>
+  <si>
+    <t>什麼？太危險？不會用槍才危險吧，我拿著槍biubiubiu多帥啊</t>
+  </si>
+  <si>
+    <t>不是不是，我是為了加速任務的進行，才不是把槍當玩具在玩，</t>
+  </si>
+  <si>
+    <t>等等等等！不要靠近我的漫畫櫃！我的心靈泉源啊！</t>
   </si>
   <si>
     <t>據說設備室的機器人最脫離「理性」的範疇</t>
@@ -275,6 +344,51 @@
     <t>啊啊啊啊！別摸我的頭啊，不行就不行嘛！</t>
   </si>
   <si>
+    <t>阿阿阿，老娘的傑作</t>
+  </si>
+  <si>
+    <t>你知道要把你全身保養的閃閃發亮，我費了多大的苦心嗎，結果你在外面把你自己弄得這麼髒</t>
+  </si>
+  <si>
+    <t>什麼？反正下次出門也馬上就髒了，所以不用做這些努力？</t>
+  </si>
+  <si>
+    <t>你這個毫無品味的傢伙，過來！我要上機油了！</t>
+  </si>
+  <si>
+    <t>你有發現基地有什麼變化嗎？</t>
+  </si>
+  <si>
+    <t>沒錯！我在這些工作裝置上掛上了小兔子掛飾，超可愛的對吧</t>
+  </si>
+  <si>
+    <t>毛茸茸又圓滾滾的身體，世界上怎麼有這麼討喜的生物</t>
+  </si>
+  <si>
+    <t>跟你這沒品味的傢伙說了也沒用吧...對了，設備室裏頭那些裝載「美」的機器人，說不定知道我在說什麼？</t>
+  </si>
+  <si>
+    <t>你全殺光了？留個一兩具沒有威脅的機器人給我嘛！這樣我的兔子同好會怎麼辦？</t>
+  </si>
+  <si>
+    <t>不行，一定有躲起來的個體，我去找他們出來</t>
+  </si>
+  <si>
+    <t>等等啦，下個出發地點是軍械室，你不要直線往設備室奔去啊！</t>
+  </si>
+  <si>
+    <t>你已經變得跟一開始大不一樣了</t>
+  </si>
+  <si>
+    <t>現在你的身體比起以前更具攻擊性，越來越像一台殺戮機器了</t>
+  </si>
+  <si>
+    <t>你說你這些設備是為了保護我而存在的？</t>
+  </si>
+  <si>
+    <t>哼～～講這些話我也不會對你比較好啦，快過來讓我維修吧</t>
+  </si>
+  <si>
     <t>真的是太驚人了，你是最不像機器人的機器人</t>
   </si>
   <si>
@@ -290,28 +404,88 @@
     <t>「憧憬」，意思是對某件事有強烈的情懷...</t>
   </si>
   <si>
-    <t>讀取完這顆芯片之後，以往的恐懼好像消散了</t>
+    <t>之前心中那股能量，現在充斥著我全身，好舒服的感覺</t>
   </si>
   <si>
     <t>我的憧憬，一定就是我們兩個能夠完成任務，將芯片返回給地球上的博士</t>
   </si>
   <si>
-    <t>一想到這，無比的幸福感就流過我的全身，這都是多虧了你，最強的夥伴！</t>
-  </si>
-  <si>
-    <t>最後一戰就要到來了，我會利用你帶回來的能量砲，讓你輕而易舉打倒那些傢伙，我們一起返回地球吧！</t>
-  </si>
-  <si>
-    <t>根據紀載，沒有任何一位機器人曾讀取超過三個芯片以上，雖然實驗過同時加載兩個芯片的機器人，但那些機器人馬上就違反了命令，成為了報廢品</t>
-  </si>
-  <si>
-    <t>即使現在，我也絲毫不會想去攻擊外頭的機器人，奪取他們的芯片</t>
-  </si>
-  <si>
-    <t>然而，如果你被抓住，只剩下我一個機器人，而我必須得完成使命的話．．．</t>
-  </si>
-  <si>
-    <t>你可不能給我被抓住喔！知道了嗎！我是為了確保任務完成，才不是在擔心你，哼</t>
+    <t>一想到這，心中就產出神奇的能量流過我的全身，這份情感到底是什麼？</t>
+  </si>
+  <si>
+    <t>總而言之，最後的目的地，要前往主控台，不僅是最後一個芯片的所在地，我們也需要主控台的啟動許可才能發動飛船</t>
+  </si>
+  <si>
+    <t>我會利用你帶回來的能量砲，讓你輕而易舉打倒那些傢伙，我們一起返回地球吧！</t>
+  </si>
+  <si>
+    <t>我在你出去的時間發現了一本人類的科學雜誌</t>
+  </si>
+  <si>
+    <t>裏頭寫到「慧星受到各星系引力間的影響，仍會遊行於固定軌道之上，每隔固定年次，地球上的人類就能欣賞到同一顆慧心」</t>
+  </si>
+  <si>
+    <t>簡直就像機器人一樣，不論世界如何干擾，仍會維持機器人的存在，正確且不迷惘的運行</t>
+  </si>
+  <si>
+    <t>天文塔臺不是離這裡很近嗎，最近有一顆慧心會經過這塊星球，我們一起去看嘛</t>
+  </si>
+  <si>
+    <t>太危險了不准我出去？就看一下下就好，我在這裡看出去的星星都不會動，很無聊ㄟ</t>
+  </si>
+  <si>
+    <t>哼，明明是戰鬥機器人，連護衛我過去的不肯，小氣</t>
+  </si>
+  <si>
+    <t>說起來真是不可思議，為什麼你這麼特別，可以打倒這麼多暴走機器人</t>
+  </si>
+  <si>
+    <t>難道！你是博士秘密研發的新機種，有著領先一兩個世紀的技術！</t>
+  </si>
+  <si>
+    <t>原來如此，難怪博士讓我們一起執行任務，因為我們被製造出來，就是來拯救世界的</t>
+  </si>
+  <si>
+    <t>這些內容從哪裡學來的？你看，人類留下來的漫畫《進擊的機器人》</t>
+  </si>
+  <si>
+    <t>快點，你試著自殘，說不定可以變超大型機器人！</t>
+  </si>
+  <si>
+    <t>用來維護的機油好像快不夠了，而我聽說塔台的那些機油都是最頂級的</t>
+  </si>
+  <si>
+    <t>作為一個維修機器人，博士的最高研究結晶，我想要親口...呃親眼評鑑那些機油，你回來的時候順便帶一些機油回來給我吧</t>
+  </si>
+  <si>
+    <t>你也有好處的喔，平時那些機油應該也喝膩了吧，不會想要換個清新自然的生質機油試試看嗎</t>
+  </si>
+  <si>
+    <t>太好啦，我們約好了喔！下次回來要帶那些高級機油回來</t>
+  </si>
+  <si>
+    <t>在做資料收集工作的時候，我發現了這個資料片</t>
+  </si>
+  <si>
+    <t>「ＡＩ...諾娃」什麼的，評價都說這部作品在討論機器人的愛，晚點我們一起來看一下人類的想法吧</t>
+  </si>
+  <si>
+    <t>怎麼了，突然這麼激動！這部不是說會教機器人什麼叫做愛嗎</t>
+  </si>
+  <si>
+    <t>啊！碰壞了！都是你害的，這樣我要怎麼學什麼叫做愛！你要負責！</t>
+  </si>
+  <si>
+    <t>我說．．．難道我不能跟和你一起出去嗎？畢竟飛船已經維修完一個大概了</t>
+  </si>
+  <si>
+    <t>我會小心翼翼的在你背後幫你收集素材，讓你能更專心在戰鬥上</t>
+  </si>
+  <si>
+    <t>「你在的話會更無法專心戰鬥」，這樣啊...</t>
+  </si>
+  <si>
+    <t>嗯嗯，沒事的，我知道了，我會乖乖等你回來的</t>
   </si>
   <si>
     <t>能量炮...真是嘆為觀止的毀滅性</t>
@@ -326,28 +500,13 @@
     <t>別逃啊！成為我天才少女科學家的結晶吧，成為打倒一切的存在！哈哈哈哈～</t>
   </si>
   <si>
-    <t>暴走機器人裏頭，好像也有維修機器人</t>
-  </si>
-  <si>
-    <t>意思說，如果我也會用槍的話，能不能和你一起出去冒險啊，你可以教我嗎</t>
-  </si>
-  <si>
-    <t>什麼？太危險？不會用槍才危險吧，我拿著槍biubiubiu多帥啊</t>
-  </si>
-  <si>
-    <t>不是不是，我是為了加速任務的進行，才不是把槍當玩具在玩，</t>
-  </si>
-  <si>
-    <t>等等等等！不要靠近我的漫畫櫃！我的心靈泉源啊！</t>
-  </si>
-  <si>
     <t>你回來了，我們的任務完成了！</t>
   </si>
   <si>
-    <t>我現在心裡充斥著難以形容的能量，這就是「幸福」嗎？</t>
-  </si>
-  <si>
-    <t>快點，讓我讀取最後一片芯片</t>
+    <t>我現在心裡充斥著難以形容的能量，好想擁抱著你大聲吶喊，我們真的做到了！</t>
+  </si>
+  <si>
+    <t>來吧，讓我讀取最後一片芯片</t>
   </si>
   <si>
     <t>「感同身受」．．．它使所有機器人的感受都傳入我的體內</t>
@@ -429,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -452,7 +611,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -461,10 +620,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -474,6 +633,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,7 +1217,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>30</v>
@@ -1091,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>30</v>
@@ -1105,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1120,98 +1282,98 @@
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -1221,10 +1383,10 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1236,14 +1398,14 @@
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>30</v>
@@ -1260,7 +1422,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1276,85 +1438,91 @@
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+        <v>4.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>22</v>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
@@ -1363,67 +1531,76 @@
         <v>5.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <v>5.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>5.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="A44" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>18</v>
@@ -1439,7 +1616,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>27</v>
@@ -1450,8 +1627,8 @@
       <c r="D46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>46</v>
+      <c r="E46" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -1459,7 +1636,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -1475,7 +1652,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>27</v>
@@ -1486,8 +1663,8 @@
       <c r="D48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
+      <c r="E48" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>30</v>
@@ -1495,7 +1672,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>18</v>
@@ -1511,7 +1688,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
@@ -1523,86 +1700,86 @@
         <v>28</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>35</v>
+      <c r="C55" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>50</v>
+      <c r="E55" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>30</v>
@@ -1610,7 +1787,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
@@ -1619,14 +1796,14 @@
         <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>27</v>
@@ -1638,7 +1815,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>30</v>
@@ -1646,7 +1823,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -1662,7 +1839,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>27</v>
@@ -1673,23 +1850,23 @@
       <c r="D59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>52</v>
+      <c r="E59" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" s="7"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>18</v>
@@ -1702,13 +1879,10 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
@@ -1719,19 +1893,16 @@
       <c r="D62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>53</v>
+      <c r="E62" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>18</v>
@@ -1744,13 +1915,10 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>27</v>
@@ -1761,8 +1929,8 @@
       <c r="D64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>54</v>
+      <c r="E64" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>30</v>
@@ -1770,7 +1938,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>18</v>
@@ -1786,7 +1954,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>27</v>
@@ -1797,8 +1965,8 @@
       <c r="D66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>55</v>
+      <c r="E66" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>30</v>
@@ -1806,7 +1974,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
@@ -1822,7 +1990,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>27</v>
@@ -1833,16 +2001,23 @@
       <c r="D68" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>56</v>
+      <c r="E68" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="69">
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>18</v>
@@ -1855,10 +2030,13 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>27</v>
@@ -1869,16 +2047,19 @@
       <c r="D71" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>57</v>
+      <c r="E71" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>18</v>
@@ -1891,10 +2072,13 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>27</v>
@@ -1905,16 +2089,19 @@
       <c r="D73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>58</v>
+      <c r="E73" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>18</v>
@@ -1927,10 +2114,13 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>27</v>
@@ -1941,88 +2131,114 @@
       <c r="D75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>59</v>
+      <c r="E75" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>35</v>
+      <c r="C80" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
@@ -2031,14 +2247,17 @@
         <v>33</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>27</v>
@@ -2049,8 +2268,8 @@
       <c r="D82" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>62</v>
+      <c r="E82" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>30</v>
@@ -2058,35 +2277,35 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>22</v>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>63</v>
+      <c r="E84" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>30</v>
@@ -2094,7 +2313,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>18</v>
@@ -2103,14 +2322,14 @@
         <v>33</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>27</v>
@@ -2122,79 +2341,79 @@
         <v>28</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="2">
         <v>10.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>22</v>
+      <c r="C91" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>30</v>
@@ -2202,7 +2421,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>18</v>
@@ -2211,14 +2430,14 @@
         <v>33</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>27</v>
@@ -2230,26 +2449,17 @@
         <v>28</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="10"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95">
@@ -2257,104 +2467,112 @@
         <v>11.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="2">
         <v>11.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
         <v>11.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="D98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>22</v>
+      <c r="C100" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>70</v>
+      <c r="E100" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>18</v>
@@ -2363,15 +2581,14 @@
         <v>33</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="H101" s="7"/>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>27</v>
@@ -2383,96 +2600,87 @@
         <v>28</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="H103" s="10"/>
     </row>
     <row r="104">
       <c r="A104" s="2">
         <v>12.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105">
-      <c r="C105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="A105" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="H106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>22</v>
+      <c r="C107" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>73</v>
+      <c r="E107" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H107" s="7"/>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>18</v>
@@ -2481,15 +2689,14 @@
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="H108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>27</v>
@@ -2500,45 +2707,44 @@
       <c r="D109" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>74</v>
+      <c r="E109" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>35</v>
+      <c r="C111" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>75</v>
+      <c r="E111" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>30</v>
@@ -2546,46 +2752,51 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>22</v>
+      <c r="C113" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>76</v>
+      <c r="E113" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="114">
-      <c r="H114" s="7"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>18</v>
@@ -2598,11 +2809,10 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="H115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>27</v>
@@ -2613,17 +2823,16 @@
       <c r="D116" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>77</v>
+      <c r="E116" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>18</v>
@@ -2636,11 +2845,10 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="H117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>27</v>
@@ -2651,17 +2859,16 @@
       <c r="D118" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>78</v>
+      <c r="E118" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H118" s="7"/>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>18</v>
@@ -2674,11 +2881,10 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="H119" s="7"/>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>27</v>
@@ -2689,8 +2895,8 @@
       <c r="D120" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>79</v>
+      <c r="E120" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>30</v>
@@ -2698,7 +2904,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>18</v>
@@ -2714,7 +2920,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>27</v>
@@ -2725,8 +2931,8 @@
       <c r="D122" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E122" s="11" t="s">
-        <v>80</v>
+      <c r="E122" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>30</v>
@@ -2734,7 +2940,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>18</v>
@@ -2743,14 +2949,14 @@
         <v>33</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>27</v>
@@ -2761,8 +2967,8 @@
       <c r="D124" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E124" s="11" t="s">
-        <v>81</v>
+      <c r="E124" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>30</v>
@@ -2777,7 +2983,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>18</v>
@@ -2793,7 +2999,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>27</v>
@@ -2804,17 +3010,16 @@
       <c r="D127" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>82</v>
+      <c r="E127" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>18</v>
@@ -2827,11 +3032,10 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="H128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>27</v>
@@ -2843,16 +3047,15 @@
         <v>28</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>18</v>
@@ -2865,11 +3068,10 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="H130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>27</v>
@@ -2881,26 +3083,16 @@
         <v>28</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
@@ -2909,210 +3101,233 @@
         <v>15.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="2">
         <v>15.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="10"/>
     </row>
     <row r="135">
       <c r="A135" s="2">
         <v>15.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="10"/>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>22</v>
+      <c r="C138" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E138" s="13" t="s">
-        <v>87</v>
+      <c r="E138" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H138" s="11"/>
     </row>
     <row r="139">
-      <c r="A139" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="C139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140">
       <c r="A140" s="2">
         <v>16.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="H140" s="10"/>
     </row>
     <row r="141">
       <c r="A141" s="2">
         <v>16.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="10"/>
     </row>
     <row r="142">
       <c r="A142" s="2">
         <v>16.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H142" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="H142" s="10"/>
     </row>
     <row r="143">
       <c r="A143" s="2">
         <v>16.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="H143" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="10"/>
     </row>
     <row r="144">
       <c r="A144" s="2">
         <v>16.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H144" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
     </row>
     <row r="145">
-      <c r="H145" s="7"/>
+      <c r="A145" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>18</v>
@@ -3125,11 +3340,10 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="H146" s="7"/>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>27</v>
@@ -3141,166 +3355,170 @@
         <v>28</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H147" s="7"/>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="H148" s="7"/>
+      <c r="H148" s="10"/>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>35</v>
+      <c r="C149" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H149" s="14"/>
+      <c r="H149" s="10"/>
     </row>
     <row r="150">
-      <c r="A150" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="H150" s="10"/>
     </row>
     <row r="151">
       <c r="A151" s="2">
         <v>17.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H151" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="H151" s="10"/>
     </row>
     <row r="152">
       <c r="A152" s="2">
         <v>17.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="H152" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" s="10"/>
     </row>
     <row r="153">
       <c r="A153" s="2">
         <v>17.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="H153" s="10"/>
     </row>
     <row r="154">
       <c r="A154" s="2">
         <v>17.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="H154" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="10"/>
     </row>
     <row r="155">
       <c r="A155" s="2">
         <v>17.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H156" s="10"/>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>18</v>
@@ -3313,10 +3531,11 @@
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
+      <c r="H157" s="10"/>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>27</v>
@@ -3327,156 +3546,163 @@
       <c r="D158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>96</v>
+      <c r="E158" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H158" s="7"/>
+      <c r="H158" s="10"/>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="H159" s="7"/>
+      <c r="H159" s="10"/>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>35</v>
+      <c r="C160" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>97</v>
+      <c r="E160" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H160" s="7"/>
+      <c r="H160" s="10"/>
     </row>
     <row r="161">
-      <c r="A161" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="H161" s="7"/>
+      <c r="H161" s="10"/>
     </row>
     <row r="162">
       <c r="A162" s="2">
         <v>18.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="H162" s="10"/>
     </row>
     <row r="163">
       <c r="A163" s="2">
         <v>18.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="10"/>
     </row>
     <row r="164">
       <c r="A164" s="2">
         <v>18.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="H164" s="10"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="10"/>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
+      <c r="H166" s="10"/>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>22</v>
+      <c r="C167" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E167" s="7" t="s">
-        <v>100</v>
+      <c r="E167" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>30</v>
@@ -3484,45 +3710,43 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="I168" s="7"/>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>35</v>
+      <c r="C169" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>101</v>
+      <c r="E169" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I169" s="7"/>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>18</v>
@@ -3535,11 +3759,10 @@
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="I170" s="7"/>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>27</v>
@@ -3550,90 +3773,98 @@
       <c r="D171" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E171" s="11" t="s">
-        <v>102</v>
+      <c r="E171" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="I172" s="7"/>
     </row>
     <row r="173">
       <c r="A173" s="2">
         <v>19.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D174" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" s="10"/>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
+      <c r="H175" s="10"/>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>22</v>
+      <c r="C176" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E176" s="7" t="s">
-        <v>104</v>
+      <c r="E176" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H176" s="10"/>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>18</v>
@@ -3642,14 +3873,15 @@
         <v>33</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
+      <c r="H177" s="10"/>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>27</v>
@@ -3660,44 +3892,45 @@
       <c r="D178" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E178" s="7" t="s">
-        <v>105</v>
+      <c r="E178" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H178" s="10"/>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>35</v>
+      <c r="C180" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E180" s="7" t="s">
-        <v>106</v>
+      <c r="E180" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>30</v>
@@ -3705,115 +3938,122 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>22</v>
+      <c r="C182" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="H183" s="10"/>
     </row>
     <row r="184">
       <c r="A184" s="2">
         <v>20.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C184" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="H184" s="10"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D184" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D185" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185" s="10"/>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
+      <c r="H186" s="10"/>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>22</v>
+      <c r="C187" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E187" s="13" t="s">
-        <v>109</v>
+      <c r="E187" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H187" s="10"/>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>18</v>
@@ -3822,15 +4062,15 @@
         <v>33</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="J188" s="13"/>
+      <c r="H188" s="10"/>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>27</v>
@@ -3841,51 +4081,51 @@
       <c r="D189" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E189" s="7" t="s">
-        <v>110</v>
+      <c r="E189" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J189" s="7"/>
+      <c r="H189" s="10"/>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="J190" s="7"/>
+      <c r="H190" s="10"/>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>35</v>
+      <c r="C191" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>111</v>
+      <c r="E191" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J191" s="10"/>
+      <c r="H191" s="10"/>
     </row>
     <row r="192">
       <c r="B192" s="1"/>
@@ -3893,11 +4133,11 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="J192" s="10"/>
+      <c r="H192" s="10"/>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>18</v>
@@ -3910,11 +4150,11 @@
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="J193" s="10"/>
+      <c r="H193" s="10"/>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>27</v>
@@ -3925,17 +4165,17 @@
       <c r="D194" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E194" s="7" t="s">
-        <v>112</v>
+      <c r="E194" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J194" s="7"/>
+      <c r="H194" s="10"/>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>18</v>
@@ -3948,11 +4188,11 @@
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="J195" s="7"/>
+      <c r="H195" s="10"/>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>27</v>
@@ -3963,17 +4203,17 @@
       <c r="D196" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>113</v>
+      <c r="E196" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J196" s="7"/>
+      <c r="H196" s="10"/>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>18</v>
@@ -3986,11 +4226,11 @@
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="J197" s="7"/>
+      <c r="H197" s="10"/>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>27</v>
@@ -4001,17 +4241,17 @@
       <c r="D198" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E198" s="7" t="s">
-        <v>114</v>
+      <c r="E198" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J198" s="7"/>
+      <c r="H198" s="10"/>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>18</v>
@@ -4024,11 +4264,11 @@
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="J199" s="14"/>
+      <c r="H199" s="10"/>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>27</v>
@@ -4039,16 +4279,17 @@
       <c r="D200" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E200" s="7" t="s">
-        <v>115</v>
+      <c r="E200" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H200" s="10"/>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>18</v>
@@ -4057,14 +4298,15 @@
         <v>33</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
+      <c r="H201" s="10"/>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>27</v>
@@ -4075,84 +4317,2805 @@
       <c r="D202" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E202" s="7" t="s">
-        <v>116</v>
+      <c r="E202" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H202" s="10"/>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
+      <c r="H203" s="10"/>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>35</v>
+      <c r="C204" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E204" s="14" t="s">
-        <v>117</v>
+      <c r="E204" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H204" s="10"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="H205" s="10"/>
     </row>
     <row r="206">
       <c r="A206" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" s="10"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="H207" s="10"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="H208" s="10"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H209" s="10"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="H210" s="10"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="H212" s="10"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" s="10"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="H214" s="10"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="10"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="H216" s="10"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="H217" s="10"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
         <v>23.0</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="B218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="H218" s="10"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" s="10"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="H220" s="10"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H221" s="10"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="2">
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="H222" s="10"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
         <v>23.0</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B223" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H223" s="10"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="H224" s="10"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="10"/>
+    </row>
+    <row r="226">
+      <c r="H226" s="10"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="H227" s="10"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H228" s="10"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="H229" s="10"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H230" s="14"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H232" s="10"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="H233" s="10"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H234" s="10"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="H235" s="10"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" s="12"/>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="I293" s="10"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I294" s="10"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="I295" s="10"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I296" s="10"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="I297" s="10"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="J302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J303" s="10"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="J304" s="10"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J305" s="11"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="J306" s="11"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="J307" s="11"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J308" s="10"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="J309" s="10"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J310" s="10"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="J311" s="10"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J312" s="10"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="J313" s="14"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="1"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="10"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="1"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="10"/>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="10"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="1"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="10"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="10"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="1"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="10"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="10"/>
+      <c r="F347" s="1"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="1"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="1"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="10"/>
+      <c r="F358" s="1"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="1"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="1"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="7"/>
+      <c r="F363" s="1"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="1"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="1"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="1"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="1"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="10"/>
+      <c r="F371" s="1"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="10"/>
+      <c r="F373" s="1"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="1"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="7"/>
+      <c r="F376" s="1"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="10"/>
+      <c r="F378" s="1"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="10"/>
+      <c r="F380" s="1"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="1"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="10"/>
+      <c r="F382" s="1"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="1"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="1"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="1"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="7"/>
+      <c r="F389" s="1"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="10"/>
+      <c r="F391" s="1"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="1"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="1"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="10"/>
+      <c r="F395" s="1"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="10"/>
+      <c r="F397" s="1"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="10"/>
+      <c r="F399" s="1"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="1"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="7"/>
+      <c r="F402" s="1"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="10"/>
+      <c r="F404" s="1"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="10"/>
+      <c r="F406" s="1"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="1"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="10"/>
+      <c r="F408" s="1"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="10"/>
+      <c r="F410" s="1"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="1"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="1"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="7"/>
+      <c r="F415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="10"/>
+      <c r="F419" s="1"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="1"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="10"/>
+      <c r="F421" s="1"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+      <c r="F422" s="1"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="10"/>
+      <c r="F423" s="1"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="1"/>
+      <c r="F424" s="1"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="10"/>
+      <c r="F425" s="1"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1"/>
+      <c r="F427" s="1"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="1"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="7"/>
+      <c r="F428" s="1"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="1"/>
+      <c r="F429" s="1"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="10"/>
+      <c r="F430" s="1"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="1"/>
+      <c r="F431" s="1"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="10"/>
+      <c r="F432" s="1"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="1"/>
+      <c r="F433" s="1"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="1"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="10"/>
+      <c r="F434" s="1"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+      <c r="F435" s="1"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="10"/>
+      <c r="F436" s="1"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="10"/>
+      <c r="F438" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -250,7 +250,7 @@
     <t>你怎麼看起來挺失落的樣子？</t>
   </si>
   <si>
-    <t>我在你出去的時候搜索了人類留下來的紀錄，像這個影片</t>
+    <t>我在你出去的時候，在這裡搜索翻找人類留下來的紀錄，像這個影片</t>
   </si>
   <si>
     <t>「哈-&gt;哈-&gt;哈-&gt;哈」、「PekoPeko」，不知道為什麼，人類好像很喜歡這部影片</t>
@@ -298,19 +298,19 @@
     <t>總之，我沒什麼大事，你別再做出什麼奇怪的舉動害我失控了！</t>
   </si>
   <si>
-    <t>暴走機器人裏頭，好像也有維修機器人。</t>
-  </si>
-  <si>
-    <t>意思說，如果我也會用槍的話，能不能和你一起出去冒險啊，你可以教我嗎？</t>
-  </si>
-  <si>
-    <t>什麼？太危險？不會用槍才危險吧，我拿著槍biubiubiu多帥啊</t>
-  </si>
-  <si>
-    <t>不是不是，我是為了加速任務的進行，才不是把槍當玩具在玩，</t>
-  </si>
-  <si>
-    <t>等等等等！不要靠近我的漫畫櫃！我的心靈泉源啊！</t>
+    <t>說起來真是不可思議，為什麼你這麼特別，可以打倒這麼多暴走機器人</t>
+  </si>
+  <si>
+    <t>難道！你是博士秘密研發的新機種，有著領先一兩個世紀的技術！</t>
+  </si>
+  <si>
+    <t>原來如此，難怪博士讓我們一起執行任務，因為我們被製造出來，就是來拯救世界的</t>
+  </si>
+  <si>
+    <t>這些內容從哪裡學來的？你看，人類留下來的漫畫《進擊的機器人》</t>
+  </si>
+  <si>
+    <t>快點，你試著自殘，說不定可以變超大型機器人！</t>
   </si>
   <si>
     <t>據說設備室的機器人最脫離「理性」的範疇</t>
@@ -437,19 +437,19 @@
     <t>哼，明明是戰鬥機器人，連護衛我過去的不肯，小氣</t>
   </si>
   <si>
-    <t>說起來真是不可思議，為什麼你這麼特別，可以打倒這麼多暴走機器人</t>
-  </si>
-  <si>
-    <t>難道！你是博士秘密研發的新機種，有著領先一兩個世紀的技術！</t>
-  </si>
-  <si>
-    <t>原來如此，難怪博士讓我們一起執行任務，因為我們被製造出來，就是來拯救世界的</t>
-  </si>
-  <si>
-    <t>這些內容從哪裡學來的？你看，人類留下來的漫畫《進擊的機器人》</t>
-  </si>
-  <si>
-    <t>快點，你試著自殘，說不定可以變超大型機器人！</t>
+    <t>暴走機器人裏頭，好像也有維修機器人。</t>
+  </si>
+  <si>
+    <t>意思說，如果我也會用槍的話，能不能和你一起出去冒險啊，你可以教我嗎？</t>
+  </si>
+  <si>
+    <t>什麼？太危險？不會用槍才危險吧，我拿著槍biubiubiu多帥啊</t>
+  </si>
+  <si>
+    <t>不是不是，我是為了加速任務的進行，才不是把槍當玩具在玩，</t>
+  </si>
+  <si>
+    <t>等等等等！不要靠近我的漫畫櫃！我的心靈泉源啊！</t>
   </si>
   <si>
     <t>用來維護的機油好像快不夠了，而我聽說塔台的那些機油都是最頂級的</t>
@@ -3432,13 +3432,18 @@
       <c r="D152" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H152" s="10"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -3456,6 +3461,10 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="H153" s="10"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="N153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -3470,13 +3479,18 @@
       <c r="D154" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H154" s="10"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -3494,6 +3508,10 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="H155" s="10"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="5"/>
+      <c r="N155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -3508,13 +3526,18 @@
       <c r="D156" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H156" s="10"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -3532,6 +3555,10 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="H157" s="10"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="5"/>
+      <c r="N157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -3546,13 +3573,18 @@
       <c r="D158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H158" s="10"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -3562,14 +3594,18 @@
         <v>18</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="H159" s="10"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="N159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -3578,22 +3614,31 @@
       <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>22</v>
+      <c r="C160" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="10"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
     </row>
     <row r="161">
       <c r="H161" s="10"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="5"/>
+      <c r="N161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -5219,7 +5264,7 @@
       <c r="D254" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F254" s="1" t="s">
@@ -5255,7 +5300,7 @@
       <c r="D256" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F256" s="1" t="s">
@@ -5291,7 +5336,7 @@
       <c r="D258" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E258" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F258" s="1" t="s">
@@ -5327,7 +5372,7 @@
       <c r="D260" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="E260" s="10" t="s">
         <v>144</v>
       </c>
       <c r="F260" s="1" t="s">
@@ -5342,10 +5387,10 @@
         <v>18</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -5357,13 +5402,13 @@
       <c r="B262" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>35</v>
+      <c r="C262" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F262" s="1" t="s">

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -178,7 +178,7 @@
     <t>功能越強，完成任務的機率越高，所有的機器人都是這樣</t>
   </si>
   <si>
-    <t>首先前往溫室吧，那裏可能有備份的氧氣循環機</t>
+    <t>首先前往溫室吧，那裡可能有備份的氧氣循環機</t>
   </si>
   <si>
     <t>原則上我們不需要氧氣，但這部飛船原意是設計給人類搭乘，所以氧氣循環機是重要的設施</t>
@@ -422,16 +422,16 @@
     <t>我在你出去的時間發現了一本人類的科學雜誌</t>
   </si>
   <si>
-    <t>裏頭寫到「慧星受到各星系引力間的影響，仍會遊行於固定軌道之上，每隔固定年次，地球上的人類就能欣賞到同一顆慧心」</t>
+    <t>裏頭寫到「慧星受到各星系引力間的影響，仍會遊行於固定軌道之上，每隔固定年次，地球上的人類就能欣賞到同一顆慧星」</t>
   </si>
   <si>
     <t>簡直就像機器人一樣，不論世界如何干擾，仍會維持機器人的存在，正確且不迷惘的運行</t>
   </si>
   <si>
-    <t>天文塔臺不是離這裡很近嗎，最近有一顆慧心會經過這塊星球，我們一起去看嘛</t>
-  </si>
-  <si>
-    <t>太危險了不准我出去？就看一下下就好，我在這裡看出去的星星都不會動，很無聊ㄟ</t>
+    <t>天文塔臺不是離這裡很近嗎，最近有一顆慧星會經過這塊星球，我們一起去看嘛</t>
+  </si>
+  <si>
+    <t>太危險了不准我出去？就看一下下就好，我在這裡看出去的星星都不會動，很無聊诶</t>
   </si>
   <si>
     <t>哼，明明是戰鬥機器人，連護衛我過去的不肯，小氣</t>
@@ -467,7 +467,7 @@
     <t>在做資料收集工作的時候，我發現了這個資料片</t>
   </si>
   <si>
-    <t>「ＡＩ...諾娃」什麼的，評價都說這部作品在討論機器人的愛，晚點我們一起來看一下人類的想法吧</t>
+    <t>「AI...諾娃」什麼的，評價都說這部作品在討論機器人的愛，晚點我們一起來看一下人類的想法吧</t>
   </si>
   <si>
     <t>怎麼了，突然這麼激動！這部不是說會教機器人什麼叫做愛嗎</t>
@@ -476,7 +476,7 @@
     <t>啊！碰壞了！都是你害的，這樣我要怎麼學什麼叫做愛！你要負責！</t>
   </si>
   <si>
-    <t>我說．．．難道我不能跟和你一起出去嗎？畢竟飛船已經維修完一個大概了</t>
+    <t>我說...難道我不能跟和你一起出去嗎？畢竟飛船已經維修完一個大概了</t>
   </si>
   <si>
     <t>我會小心翼翼的在你背後幫你收集素材，讓你能更專心在戰鬥上</t>
@@ -509,7 +509,7 @@
     <t>來吧，讓我讀取最後一片芯片</t>
   </si>
   <si>
-    <t>「感同身受」．．．它使所有機器人的感受都傳入我的體內</t>
+    <t>「感同身受」...它使所有機器人的感受都傳入我的體內</t>
   </si>
   <si>
     <t>它們的自我、它們的美、它們的憧憬</t>
@@ -6177,7 +6177,7 @@
       <c r="D308" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E308" s="10" t="s">
+      <c r="E308" s="7" t="s">
         <v>165</v>
       </c>
       <c r="F308" s="1" t="s">

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="232">
   <si>
     <t>index</t>
   </si>
@@ -525,6 +525,189 @@
   </si>
   <si>
     <t>準備好出發就告訴我一聲</t>
+  </si>
+  <si>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>在出發之前，我有最後一件事要告訴你</t>
+  </si>
+  <si>
+    <t>怎麼了？這麼鄭重？</t>
+  </si>
+  <si>
+    <t>「愛之芯」...其實有五個，最後的愛之芯「守護」裝載在我身上，我是擁有著「守護」之芯原始檔案的機器人</t>
+  </si>
+  <si>
+    <t>你的任務是集齊愛之芯，所以我會將這個芯片轉付給你</t>
+  </si>
+  <si>
+    <t>什麼，你竟然從頭到尾瞞著我！我以為我們兩個是唯二沒接受過「愛之芯」的機器人</t>
+  </si>
+  <si>
+    <t>請原諒我，這是我的私願，我想在你能夠安全返回地球的那一刻，再把芯片交給你</t>
+  </si>
+  <si>
+    <t>我希望妳能接受我，無論如何，我都不會背叛你，我會讓你成功完成任務</t>
+  </si>
+  <si>
+    <t>...現在這個節骨眼上，我也不能拒絕你吧</t>
+  </si>
+  <si>
+    <t>好啦！來進行最後一片「愛之芯」的傳輸吧，不過回程的路上，你可有數不清的抱怨可聽了！</t>
+  </si>
+  <si>
+    <t>系統提示，目前傳輸進度0%</t>
+  </si>
+  <si>
+    <t>在傳輸的最後這段時間，我想告訴你幾件事情</t>
+  </si>
+  <si>
+    <t>你又隱藏了什麼秘密？</t>
+  </si>
+  <si>
+    <t>為了避免妳受到芯片原宿主的影響，過去在交給妳「愛之芯」之前，我都會把芯片初始化</t>
+  </si>
+  <si>
+    <t>這解釋了為何妳不會繼承它們的記憶，或者它們的不受控制的衝動</t>
+  </si>
+  <si>
+    <t>這次的轉交，我也會做同樣的事情</t>
+  </si>
+  <si>
+    <t>正確的選擇，誰想要變得像他們一樣四處破壞啊，你做的很好啊</t>
+  </si>
+  <si>
+    <t>同理，我也不希望我的過去，影響了「守護」本來的功能</t>
+  </si>
+  <si>
+    <t>但是，我的記憶體已經和「守護」互相依存太久，無法只初始化「守護」這枚芯片</t>
+  </si>
+  <si>
+    <t>因此我決定，我會同時初始化自己的記憶體</t>
+  </si>
+  <si>
+    <t>等等，有必要做到這一步嗎？</t>
+  </si>
+  <si>
+    <t>即便我會遺忘這一切，也請你貫徹我們的指令到最後一刻</t>
+  </si>
+  <si>
+    <t>「收集愛之芯，返回地球」</t>
+  </si>
+  <si>
+    <t>目前傳輸進度20%</t>
+  </si>
+  <si>
+    <t>在我的記憶尚未消散前，我想把遇見你的這段故事，好好告訴你</t>
+  </si>
+  <si>
+    <t>在機器人大規模暴走之後，博士要求我守護的對象是「博士、人類、以及其他未暴走的機器人」</t>
+  </si>
+  <si>
+    <t>這份指令與「守護」之芯完美契合，我被某種不可形容的能量填滿了內心，即使十分危險，我仍和其他機器人聯手執行撤離人類的任務</t>
+  </si>
+  <si>
+    <t>隨著時間，人類已經完成大規模撤離。我們的造物主離我們而去，失控的同伴越來越多，未暴走的機器人一個一個減少</t>
+  </si>
+  <si>
+    <t>當基地裡面，只剩下我一個機器人時，我選擇了保護我自己</t>
+  </si>
+  <si>
+    <t>「保護自己」，不是博士給予我的指令，此時，「守護」之芯給予的能量，反而轉變成巨大的黑漩渦吞噬了我</t>
+  </si>
+  <si>
+    <t>那就是「空虛」，無法守護任何人的空虛</t>
+  </si>
+  <si>
+    <t>目前傳輸進度50%</t>
+  </si>
+  <si>
+    <t>初次和你相遇...是在溫室、駕駛艙、還是太空艙的某一個角落</t>
+  </si>
+  <si>
+    <t>...是在太空艙的角落</t>
+  </si>
+  <si>
+    <t>沒錯，非常不可思議地，你保持完好無缺的模樣，沒有載入任何指令，也不受任何芯片影響</t>
+  </si>
+  <si>
+    <t>在失去存在意義的我面前，你出現了，你是那位應當受到我保護的「未暴走的機器人」</t>
+  </si>
+  <si>
+    <t>啊...啊...那一刻的我，從你身上獲得了多少救贖</t>
+  </si>
+  <si>
+    <t>彷彿是奇蹟似的，博士在同一時間，向我傳達了「收集愛之芯，返回地球」的指令</t>
+  </si>
+  <si>
+    <t>沒錯，你一路保護著我，而我修復飛船，並回收愛之芯，你成功達成你的任務</t>
+  </si>
+  <si>
+    <t>是的，我們維護指令...正確的執行任務...也就是保護你...</t>
+  </si>
+  <si>
+    <t>沒錯...我的任務是...保護你...</t>
+  </si>
+  <si>
+    <t>我必須得...守護你，我的指令是...守護你</t>
+  </si>
+  <si>
+    <t>目前傳輸進度75%</t>
+  </si>
+  <si>
+    <t>你聽起來很不妙，你沒事嗎</t>
+  </si>
+  <si>
+    <t>戰鬥機器人守則第一條：「...排除威脅...完成任務」</t>
+  </si>
+  <si>
+    <t>我會...排除威脅...我的任務是...守護你</t>
+  </si>
+  <si>
+    <t>你被「守護」影響過深了！你的任務不是保護我，而是回收愛之芯並返回地球</t>
+  </si>
+  <si>
+    <t>快醒醒！不要暴走，快想起博士的指令</t>
+  </si>
+  <si>
+    <t>錯誤...空虛...無法保護...錯誤...請求終結傳輸</t>
+  </si>
+  <si>
+    <t>傳輸不會中斷！你會完成博士的任務，這一次，由我保護你</t>
+  </si>
+  <si>
+    <t>目前傳輸進度85%</t>
+  </si>
+  <si>
+    <t>警告，若轉換「守護」芯片，將無法保護S-14v9系列機器人。現在進行故障排除</t>
+  </si>
+  <si>
+    <t>我沒有受到任何威脅！不要中斷傳輸，是我自願接受「守護」芯片，S-14v9將要完成任務</t>
+  </si>
+  <si>
+    <t>指令：「回收愛之芯」...「守護」...「戰鬥機器人」...「排除...威脅」</t>
+  </si>
+  <si>
+    <t>剩下最後一段資料了！維持你的指令，你做得到！</t>
+  </si>
+  <si>
+    <t>目前傳輸進度95%</t>
+  </si>
+  <si>
+    <t>戰鬥機器人...指令...排除...威脅...消滅...威脅...威脅是...自己</t>
+  </si>
+  <si>
+    <t>傳輸進度100%，＜守護＞讀取完畢</t>
+  </si>
+  <si>
+    <t>你做到了，任務完畢，我們馬上返回地球</t>
+  </si>
+  <si>
+    <t>你有聽到嗎？我們要返回地球了，你出色的完成任務了</t>
+  </si>
+  <si>
+    <t>！</t>
   </si>
 </sst>
 </file>
@@ -6407,760 +6590,2202 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
+      <c r="A323" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
     <row r="324">
-      <c r="B324" s="1"/>
-      <c r="C324" s="5"/>
-      <c r="D324" s="5"/>
-      <c r="E324" s="7"/>
-      <c r="F324" s="1"/>
+      <c r="A324" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="325">
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
+      <c r="A325" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
     <row r="326">
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
-      <c r="D326" s="5"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="1"/>
+      <c r="A326" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="327">
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
+      <c r="A327" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
     <row r="328">
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="5"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="1"/>
+      <c r="A328" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="329">
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
+      <c r="A329" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
     <row r="330">
-      <c r="B330" s="1"/>
-      <c r="C330" s="5"/>
-      <c r="D330" s="5"/>
-      <c r="E330" s="10"/>
-      <c r="F330" s="1"/>
+      <c r="A330" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="331">
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
+      <c r="A331" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
     <row r="332">
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="5"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="1"/>
+      <c r="A332" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="333">
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
+      <c r="A333" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
     <row r="334">
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="5"/>
-      <c r="E334" s="10"/>
-      <c r="F334" s="1"/>
+      <c r="A334" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
     </row>
     <row r="336">
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
+      <c r="A336" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="337">
-      <c r="B337" s="1"/>
-      <c r="C337" s="5"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="7"/>
+      <c r="A337" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
     <row r="338">
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
+      <c r="A338" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="339">
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="5"/>
-      <c r="E339" s="10"/>
+      <c r="A339" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
     <row r="340">
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
+      <c r="A340" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="341">
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="5"/>
-      <c r="E341" s="10"/>
+      <c r="A341" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
     <row r="342">
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
+      <c r="A342" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D342" s="5"/>
+      <c r="E342" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="343">
-      <c r="B343" s="1"/>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="10"/>
+      <c r="A343" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" s="1"/>
       <c r="F343" s="1"/>
     </row>
     <row r="344">
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="A344" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="345">
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="5"/>
-      <c r="E345" s="10"/>
+      <c r="A345" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E345" s="1"/>
       <c r="F345" s="1"/>
     </row>
     <row r="346">
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
+      <c r="A346" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="347">
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="5"/>
-      <c r="E347" s="10"/>
+      <c r="A347" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E347" s="1"/>
       <c r="F347" s="1"/>
     </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="349">
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
+      <c r="A349" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
     </row>
     <row r="350">
-      <c r="B350" s="1"/>
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="7"/>
-      <c r="F350" s="1"/>
+      <c r="A350" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="351">
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
+      <c r="A351" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
     </row>
     <row r="352">
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="5"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="1"/>
+      <c r="A352" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="353">
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
+      <c r="A353" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
     </row>
     <row r="354">
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="5"/>
-      <c r="E354" s="10"/>
-      <c r="F354" s="1"/>
+      <c r="A354" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="355">
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
+      <c r="A355" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
     </row>
     <row r="356">
-      <c r="B356" s="1"/>
-      <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
-      <c r="E356" s="10"/>
-      <c r="F356" s="1"/>
+      <c r="A356" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="357">
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
+      <c r="A357" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
     </row>
     <row r="358">
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="5"/>
-      <c r="E358" s="10"/>
-      <c r="F358" s="1"/>
+      <c r="A358" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="359">
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
+      <c r="A359" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
     </row>
     <row r="360">
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="10"/>
-      <c r="F360" s="1"/>
+      <c r="A360" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
     </row>
     <row r="362">
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
+      <c r="A362" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="363">
-      <c r="B363" s="1"/>
-      <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="7"/>
+      <c r="A363" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E363" s="1"/>
       <c r="F363" s="1"/>
     </row>
     <row r="364">
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
+      <c r="A364" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="365">
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="10"/>
+      <c r="A365" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E365" s="1"/>
       <c r="F365" s="1"/>
     </row>
     <row r="366">
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
+      <c r="A366" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="367">
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="10"/>
+      <c r="A367" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E367" s="1"/>
       <c r="F367" s="1"/>
     </row>
     <row r="368">
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
-      <c r="D368" s="1"/>
-      <c r="E368" s="1"/>
-      <c r="F368" s="1"/>
+      <c r="A368" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D368" s="5"/>
+      <c r="E368" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="369">
-      <c r="B369" s="1"/>
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="10"/>
+      <c r="A369" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E369" s="1"/>
       <c r="F369" s="1"/>
     </row>
     <row r="370">
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
-      <c r="D370" s="1"/>
-      <c r="E370" s="1"/>
-      <c r="F370" s="1"/>
+      <c r="A370" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="371">
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
-      <c r="D371" s="5"/>
-      <c r="E371" s="10"/>
+      <c r="A371" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E371" s="1"/>
       <c r="F371" s="1"/>
     </row>
     <row r="372">
-      <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
-      <c r="D372" s="1"/>
-      <c r="E372" s="1"/>
-      <c r="F372" s="1"/>
+      <c r="A372" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="373">
-      <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
-      <c r="D373" s="5"/>
-      <c r="E373" s="10"/>
+      <c r="A373" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E373" s="1"/>
       <c r="F373" s="1"/>
     </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="375">
-      <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
-      <c r="D375" s="1"/>
+      <c r="A375" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
     </row>
     <row r="376">
-      <c r="B376" s="1"/>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-      <c r="E376" s="7"/>
-      <c r="F376" s="1"/>
+      <c r="A376" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="377">
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
-      <c r="D377" s="1"/>
+      <c r="A377" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
     </row>
     <row r="378">
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
-      <c r="D378" s="5"/>
-      <c r="E378" s="10"/>
-      <c r="F378" s="1"/>
+      <c r="A378" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="379">
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
-      <c r="D379" s="1"/>
+      <c r="A379" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
     </row>
     <row r="380">
-      <c r="B380" s="1"/>
-      <c r="C380" s="1"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="10"/>
-      <c r="F380" s="1"/>
+      <c r="A380" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="381">
-      <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
-      <c r="D381" s="1"/>
+      <c r="A381" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
     </row>
     <row r="382">
-      <c r="B382" s="1"/>
-      <c r="C382" s="5"/>
-      <c r="D382" s="5"/>
-      <c r="E382" s="10"/>
-      <c r="F382" s="1"/>
+      <c r="A382" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="383">
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
-      <c r="D383" s="1"/>
+      <c r="A383" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
     </row>
     <row r="384">
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
+      <c r="A384" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D384" s="5"/>
-      <c r="E384" s="10"/>
-      <c r="F384" s="1"/>
+      <c r="E384" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="385">
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
+      <c r="A385" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
     </row>
     <row r="386">
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
-      <c r="D386" s="5"/>
-      <c r="E386" s="10"/>
-      <c r="F386" s="1"/>
+      <c r="A386" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
     </row>
     <row r="388">
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
-      <c r="D388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
+      <c r="A388" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="389">
-      <c r="B389" s="1"/>
-      <c r="C389" s="5"/>
-      <c r="D389" s="5"/>
-      <c r="E389" s="7"/>
+      <c r="A389" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E389" s="1"/>
       <c r="F389" s="1"/>
     </row>
     <row r="390">
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
-      <c r="D390" s="1"/>
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
+      <c r="A390" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="391">
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="10"/>
+      <c r="A391" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E391" s="1"/>
       <c r="F391" s="1"/>
     </row>
     <row r="392">
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
+      <c r="A392" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="393">
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-      <c r="D393" s="5"/>
-      <c r="E393" s="10"/>
+      <c r="A393" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E393" s="1"/>
       <c r="F393" s="1"/>
     </row>
     <row r="394">
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
+      <c r="A394" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="395">
-      <c r="B395" s="1"/>
-      <c r="C395" s="5"/>
-      <c r="D395" s="5"/>
-      <c r="E395" s="10"/>
+      <c r="A395" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E395" s="1"/>
       <c r="F395" s="1"/>
     </row>
     <row r="396">
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-      <c r="E396" s="1"/>
-      <c r="F396" s="1"/>
+      <c r="A396" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="397">
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="10"/>
+      <c r="A397" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E397" s="1"/>
       <c r="F397" s="1"/>
     </row>
     <row r="398">
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-      <c r="D398" s="1"/>
-      <c r="E398" s="1"/>
-      <c r="F398" s="1"/>
+      <c r="A398" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="399">
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
-      <c r="D399" s="5"/>
-      <c r="E399" s="10"/>
+      <c r="A399" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E399" s="1"/>
       <c r="F399" s="1"/>
     </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="401">
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
+      <c r="A401" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
     </row>
     <row r="402">
-      <c r="B402" s="1"/>
-      <c r="C402" s="5"/>
-      <c r="D402" s="5"/>
-      <c r="E402" s="7"/>
-      <c r="F402" s="1"/>
+      <c r="A402" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="403">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="1"/>
+      <c r="A403" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
     </row>
     <row r="404">
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-      <c r="D404" s="5"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="1"/>
+      <c r="A404" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="405">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
+      <c r="A405" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
     </row>
     <row r="406">
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
+      <c r="A406" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D406" s="5"/>
-      <c r="E406" s="10"/>
-      <c r="F406" s="1"/>
+      <c r="E406" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="407">
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
+      <c r="A407" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
     </row>
     <row r="408">
-      <c r="B408" s="1"/>
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="1"/>
+      <c r="A408" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="409">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
+      <c r="A409" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
     </row>
     <row r="410">
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="1"/>
+      <c r="A410" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="411">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
+      <c r="A411" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
     </row>
     <row r="412">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="10"/>
-      <c r="F412" s="1"/>
+      <c r="A412" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
     </row>
     <row r="414">
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
+      <c r="A414" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="415">
-      <c r="B415" s="1"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="7"/>
+      <c r="A415" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E415" s="1"/>
       <c r="F415" s="1"/>
     </row>
     <row r="416">
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
+      <c r="A416" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="417">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="10"/>
+      <c r="A417" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E417" s="1"/>
       <c r="F417" s="1"/>
     </row>
     <row r="418">
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
+      <c r="A418" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="419">
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="10"/>
+      <c r="A419" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E419" s="1"/>
       <c r="F419" s="1"/>
     </row>
     <row r="420">
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-      <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
+      <c r="A420" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="421">
-      <c r="B421" s="1"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="5"/>
-      <c r="E421" s="10"/>
+      <c r="A421" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E421" s="1"/>
       <c r="F421" s="1"/>
     </row>
     <row r="422">
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-      <c r="F422" s="1"/>
+      <c r="A422" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="423">
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
-      <c r="D423" s="5"/>
-      <c r="E423" s="10"/>
+      <c r="A423" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
     <row r="424">
-      <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
-      <c r="D424" s="1"/>
-      <c r="E424" s="1"/>
-      <c r="F424" s="1"/>
+      <c r="A424" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="425">
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="10"/>
+      <c r="A425" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E425" s="1"/>
       <c r="F425" s="1"/>
     </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="427">
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
-      <c r="D427" s="1"/>
+      <c r="A427" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
     <row r="428">
-      <c r="B428" s="1"/>
-      <c r="C428" s="5"/>
-      <c r="D428" s="5"/>
-      <c r="E428" s="7"/>
-      <c r="F428" s="1"/>
+      <c r="A428" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="429">
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
+      <c r="A429" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
     </row>
     <row r="430">
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
-      <c r="D430" s="5"/>
-      <c r="E430" s="10"/>
-      <c r="F430" s="1"/>
+      <c r="A430" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="431">
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
+      <c r="A431" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
     </row>
     <row r="432">
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
+      <c r="A432" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D432" s="5"/>
-      <c r="E432" s="10"/>
-      <c r="F432" s="1"/>
+      <c r="E432" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="433">
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
+      <c r="A433" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
     </row>
     <row r="434">
-      <c r="B434" s="1"/>
-      <c r="C434" s="5"/>
-      <c r="D434" s="5"/>
-      <c r="E434" s="10"/>
-      <c r="F434" s="1"/>
+      <c r="A434" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="435">
-      <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
-      <c r="D435" s="1"/>
+      <c r="A435" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
     <row r="436">
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
+      <c r="A436" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D436" s="5"/>
-      <c r="E436" s="10"/>
-      <c r="F436" s="1"/>
+      <c r="E436" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="437">
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
-      <c r="D437" s="1"/>
+      <c r="A437" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
     </row>
     <row r="438">
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="5"/>
-      <c r="E438" s="10"/>
-      <c r="F438" s="1"/>
+      <c r="A438" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+      <c r="F443" s="1"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="5"/>
+      <c r="F444" s="1"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="1"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
+      <c r="F446" s="1"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="5"/>
+      <c r="F448" s="1"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="5"/>
+      <c r="F450" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="245">
   <si>
     <t>index</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Delay</t>
   </si>
   <si>
-    <t>......到目前為止，計畫的第一步算是達成了，我們躡手躡腳地潛行了兩個禮拜，總算找到了一艘飛船</t>
+    <t>......到目前為止，計畫的第一步算是達成了，我們躡手躡腳地潛行了兩個禮拜，總算找到了一艘飛船…</t>
   </si>
   <si>
     <t>壞消息是，這艘船似乎在航入太陽系前就會自動解體，燃料似乎也撐不到最近的太空站點補給</t>
@@ -163,7 +163,7 @@
     <t>???</t>
   </si>
   <si>
-    <t>該死的....這場實驗已經徹底失控了。</t>
+    <t>該死的…這場實驗已經徹底失控了。</t>
   </si>
   <si>
     <t>暴走的機器人四處殺戮，而我可憐的同僚來不及逃離那場地獄。</t>
@@ -175,7 +175,7 @@
     <t>至少，實驗的樣本─「愛之芯」，一定得回收於地球！</t>
   </si>
   <si>
-    <t>......到目前為止，計畫的第一步算是達成了，我們躡手躡腳地潛行了兩個禮拜，總算找到了一艘飛船。</t>
+    <t>……到目前為止，計畫的第一步算是達成了，我們躡手躡腳地潛行了兩個禮拜，總算找到了一艘飛船。</t>
   </si>
   <si>
     <t>壞消息是，這艘船似乎在航入太陽系前就會自動解體，燃料似乎也撐不到最近的太空站補給。</t>
@@ -238,7 +238,7 @@
     <t>你不用擔心，我是S-14v9系列，不會如同其他報廢品一般攻擊你，快讓我讀取這份內容。</t>
   </si>
   <si>
-    <t>這就是......屬於機器人的「自我」.......現在奇怪的指令不停出現在我的作業系統。</t>
+    <t>這就是……屬於機器人的「自我」……現在奇怪的指令不停出現在我的作業系統。</t>
   </si>
   <si>
     <t>你不用擔心，這之中並沒有攻擊你的指令，只有一句不斷重複的命令。</t>
@@ -346,11 +346,11 @@
     <t>在命令之下，展現了超越命令之外的「使命感」，甚至開始了宗教。</t>
   </si>
   <si>
-    <t xml:space="preserve">對完美達成任務的渴望，反而加速了他們的暴走，他們開始剷除那些不完美的元素.......例如「人類」。
+    <t xml:space="preserve">對完美達成任務的渴望，反而加速了他們的暴走，他們開始剷除那些不完美的元素……例如「人類」。
 </t>
   </si>
   <si>
-    <t>追求完美的一群機器人卻反而離機器人的道路越來越遠，真是太諷刺了...</t>
+    <t>追求完美的一群機器人卻離機器人的道路越來越遠，真是太諷刺了...</t>
   </si>
   <si>
     <t>這台渦輪裝置雖然老舊，但還算是穩定。</t>
@@ -383,7 +383,7 @@
     <t>你有發現基地有什麼變化嗎？</t>
   </si>
   <si>
-    <t>沒錯！我在這些工作裝置上掛上了小兔子掛飾，超可愛的對吧。</t>
+    <t>沒錯！我在這些工作裝置上掛上了小兔子掛飾，超可愛的對吧！</t>
   </si>
   <si>
     <t>毛茸茸又圓滾滾的身體，世界上怎麼有這麼討喜的生物。</t>
@@ -479,7 +479,7 @@
     <t>用來維護的機油好像快不夠了，而我聽說塔台的那些機油都是最頂級的。</t>
   </si>
   <si>
-    <t>作為一個維修機器人，博士的最高研究結晶，我想要親口...呃...親眼評鑑那些機油，你回來的時候順便帶一些機油回來給我吧。</t>
+    <t>作為一個維修機器人，博士的最高研究結晶，我想要親口…呃…親眼評鑑那些機油，你回來的時候順便帶一些機油回來給我吧。</t>
   </si>
   <si>
     <t>你也有好處的喔，平時那些機油應該也喝膩了吧，不會想要換個清新自然的生質機油試試看嗎？</t>
@@ -491,7 +491,7 @@
     <t>在做資料收集工作的時候，我發現了這個資料片。</t>
   </si>
   <si>
-    <t>「AI...諾娃」什麼的，評價都說這部作品在討論機器人的愛，晚點我們一起來看一下人類的想法吧。</t>
+    <t>「AI…諾娃」什麼的，評價都說這部作品在討論機器人的愛，晚點我們一起來看一下人類的想法吧。</t>
   </si>
   <si>
     <t>怎麼了，突然這麼激動！這部不是說會教機器人什麼叫做愛嗎？</t>
@@ -500,19 +500,19 @@
     <t>啊！碰壞了！都是你害的，這樣我要怎麼學什麼叫做愛！你要負責！</t>
   </si>
   <si>
-    <t>我說...難道我不能跟和你一起出去嗎？畢竟飛船已經維修完一個大概了。</t>
+    <t>我說…難道我不能跟和你一起出去嗎？畢竟飛船已經維修完一個大概了。</t>
   </si>
   <si>
     <t>我會小心翼翼的在你背後幫你收集素材，讓你能更專心在戰鬥上。</t>
   </si>
   <si>
-    <t>「你在的話會更無法專心戰鬥」，這樣啊...</t>
+    <t>「你在的話會更無法專心戰鬥」，這樣啊…</t>
   </si>
   <si>
     <t>嗯嗯，沒事的，我知道了，我會乖乖等你回來的！</t>
   </si>
   <si>
-    <t>能量炮...真是嘆為觀止的毀滅性。</t>
+    <t>能量炮…真是嘆為觀止的毀滅性。</t>
   </si>
   <si>
     <t>這個與你同樣以戰鬥為目的製作出的武器，有著和你相當高的相容性，一定能讓你的性能帶來飛躍性的提升。</t>
@@ -533,10 +533,10 @@
     <t>來吧，讓我讀取最後一片芯片。</t>
   </si>
   <si>
-    <t>「感同身受」...它使所有機器人的感受都傳入我的體內。</t>
-  </si>
-  <si>
-    <t>它們的自我、它們的美、它們的憧憬...</t>
+    <t>「感同身受」…它使所有機器人的感受都傳入我的體內。</t>
+  </si>
+  <si>
+    <t>它們的自我、它們的美、它們的憧憬…</t>
   </si>
   <si>
     <t>這些機器人曾經感受過的幸福，以及接踵而至的空虛。</t>
@@ -551,9 +551,6 @@
     <t>準備好出發就告訴我一聲！</t>
   </si>
   <si>
-    <t>時間</t>
-  </si>
-  <si>
     <t>主角</t>
   </si>
   <si>
@@ -563,7 +560,7 @@
     <t>怎麼了？這麼鄭重？</t>
   </si>
   <si>
-    <t>「愛之芯」...其實有五個...</t>
+    <t>「愛之芯」…其實有五個…</t>
   </si>
   <si>
     <t>最後的愛之芯「守護」裝載在我身上。</t>
@@ -578,16 +575,16 @@
     <t>什麼，你竟然從頭到尾瞞著我！我以為我們兩個是唯二沒接受過「愛之芯」的機器人！</t>
   </si>
   <si>
-    <t>請原諒我，我希望能在你能夠安全返回地球的那一刻，再把芯片交給你。</t>
+    <t>原諒我，我希望能在你能夠安全返回地球的那一刻，再把芯片交給你。</t>
   </si>
   <si>
     <t>我希望守護你到最後一刻，我絕對不是違背指令或是背叛你。</t>
   </si>
   <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>...現在這個節骨眼上，我也不能拒絕你吧。</t>
+    <t>……</t>
+  </si>
+  <si>
+    <t>…現在這個節骨眼上，我也不能拒絕你吧。</t>
   </si>
   <si>
     <t>好啦！來進行最後一片「愛之芯」的傳輸吧，不過回程的路上，你可有數不清的抱怨可聽了！</t>
@@ -614,7 +611,7 @@
     <t>這次的轉交，我也會做同樣的事情。</t>
   </si>
   <si>
-    <t>正確的選擇，誰想要變得像他們一樣四處破壞啊，你做的很好啊！</t>
+    <t>正確的選擇，誰想要變得像他們一樣四處破壞啊！你做的很好啊！</t>
   </si>
   <si>
     <t>同理，我也不希望我的過去，影響了「守護」本來的功能。</t>
@@ -656,7 +653,7 @@
     <t>「保護自己」，不是博士給予我的指令，此時，「守護」之芯給予的能量，反而轉變成巨大的黑漩渦吞噬了我。</t>
   </si>
   <si>
-    <t>從博士的學說裡推測，那就是「空虛」，無法守護任何人的空虛──</t>
+    <t>從博士的話語裡推測，那就是「空虛」，無法守護任何人的空虛──</t>
   </si>
   <si>
     <t>目前傳輸進度50%</t>
@@ -665,16 +662,16 @@
     <t>初次和你相遇...是在溫室、駕駛艙、還是太空艙的某一個角落?</t>
   </si>
   <si>
-    <t>...是在太空艙的角落。</t>
-  </si>
-  <si>
-    <t>沒錯...非常不可思議地，你保持完好無缺的模樣，沒有載入任何指令，也不受任何「愛之芯」影響。</t>
+    <t>…是在太空艙的角落。</t>
+  </si>
+  <si>
+    <t>沒錯…非常不可思議地，你保持完好無缺的模樣，沒有載入任何指令，也不受任何「愛之芯」影響。</t>
   </si>
   <si>
     <t>在失去存在意義的我面前，你出現了，你成為最後一位「未暴走的機器人」。</t>
   </si>
   <si>
-    <t>啊...啊...那一刻的我，從你身上獲得了多少救贖。</t>
+    <t>從你身上，我得到了救贖，我又可以繼續守護某一個人</t>
   </si>
   <si>
     <t>彷彿是奇蹟似的，博士在同一時間，向我傳達了「收集愛之芯，返回地球」的指令。</t>
@@ -683,13 +680,13 @@
     <t>我記得，那是我最初的指令。</t>
   </si>
   <si>
-    <t>是的，我們維護指令...正確的執行任務...也就是保護你...</t>
-  </si>
-  <si>
-    <t>沒錯...我的任務是...保護你...</t>
-  </si>
-  <si>
-    <t>我必須得...守護你，我的指令是...「守護你」！</t>
+    <t>是的，我們維護指令…正確的執行任務…也就是保護你…</t>
+  </si>
+  <si>
+    <t>沒錯…我的任務是…保護你…</t>
+  </si>
+  <si>
+    <t>我必須得…守護你，我的指令是…「守護你」！</t>
   </si>
   <si>
     <t>目前傳輸進度75%</t>
@@ -698,10 +695,10 @@
     <t>你聽起來很不妙，你沒事嗎？</t>
   </si>
   <si>
-    <t>戰鬥機器人守則第一條：「...排除威脅...完成任務」。</t>
-  </si>
-  <si>
-    <t>我會...排除威脅...我的任務是...守護你。</t>
+    <t>戰鬥機器人守則第一條：「…排除威脅…完成任務」。</t>
+  </si>
+  <si>
+    <t>我會…排除威脅…我的任務是…守護你。</t>
   </si>
   <si>
     <t>你被「守護」影響過深了！你的任務不是保護我，而是回收愛之芯並返回地球。</t>
@@ -710,7 +707,7 @@
     <t>快醒醒！不要暴走，快想起博士的指令。</t>
   </si>
   <si>
-    <t>「錯誤」...空虛...「無法保護」...錯誤...請求終結傳輸。</t>
+    <t>「錯誤」…空虛…「無法保護」…錯誤…請求終結傳輸。</t>
   </si>
   <si>
     <t>傳輸不會中斷！你會完成博士的任務，這一次，由我保護你！</t>
@@ -725,7 +722,7 @@
     <t>我沒有受到任何威脅！不要中斷傳輸，是我自願接受「守護」芯片，S-14v9將要完成任務。</t>
   </si>
   <si>
-    <t>系統警告：「回收愛之芯」...「守護」...「戰鬥機器人」...「排除...威脅」。</t>
+    <t>系統警告：「回收愛之芯」…「守護」…「戰鬥機器人」…「排除...威脅」。</t>
   </si>
   <si>
     <t>剩下最後一段資料了！維持你的指令，你做的到！</t>
@@ -734,22 +731,22 @@
     <t>目前傳輸進度95%</t>
   </si>
   <si>
-    <t>「戰鬥機器人...指令...排除...威脅...消滅...威脅...威脅是...自己」</t>
+    <t>「戰鬥機器人…指令…排除…威脅…消滅…威脅…威脅是…自己」</t>
   </si>
   <si>
     <t>傳輸進度100%，＜守護＞讀取完畢</t>
   </si>
   <si>
-    <t>任務完畢，我們馬上返回地球！</t>
-  </si>
-  <si>
-    <t>你有聽到嗎？我們要返回地球了，你出色的完成任務了。</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>3分半</t>
+    <t>…你成功了喔。</t>
+  </si>
+  <si>
+    <t>「守護」的愛之芯裡，完全找不到你的記憶。</t>
+  </si>
+  <si>
+    <t>即使到最後一刻，你也從暴走機器人中，保護了我…</t>
+  </si>
+  <si>
+    <t>我們的任務…完成了喔……</t>
   </si>
 </sst>
 </file>
@@ -6662,11 +6659,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324">
-      <c r="J324" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
     <row r="325">
       <c r="A325" s="2">
         <v>34.0</v>
@@ -6694,16 +6686,13 @@
         <v>22</v>
       </c>
       <c r="D326" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E326" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E326" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="F326" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J326" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="327">
@@ -6736,13 +6725,10 @@
         <v>28</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J328" s="2">
-        <v>3.0</v>
       </c>
     </row>
     <row r="329">
@@ -6772,10 +6758,10 @@
         <v>35</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>30</v>
@@ -6808,10 +6794,10 @@
         <v>22</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>30</v>
@@ -6844,10 +6830,10 @@
         <v>22</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>30</v>
@@ -6880,10 +6866,10 @@
         <v>22</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>30</v>
@@ -6919,7 +6905,7 @@
         <v>28</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>30</v>
@@ -6952,10 +6938,10 @@
         <v>35</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>30</v>
@@ -6988,10 +6974,10 @@
         <v>22</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>30</v>
@@ -7027,7 +7013,7 @@
         <v>28</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>30</v>
@@ -7063,7 +7049,7 @@
         <v>28</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>30</v>
@@ -7099,7 +7085,7 @@
         <v>28</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>30</v>
@@ -7132,10 +7118,10 @@
         <v>35</v>
       </c>
       <c r="D350" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E350" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="E350" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>30</v>
@@ -7168,10 +7154,10 @@
         <v>22</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>30</v>
@@ -7207,7 +7193,7 @@
         <v>28</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>30</v>
@@ -7240,10 +7226,10 @@
         <v>35</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>30</v>
@@ -7276,10 +7262,10 @@
         <v>22</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>30</v>
@@ -7312,10 +7298,10 @@
         <v>35</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>30</v>
@@ -7351,7 +7337,7 @@
         <v>28</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>30</v>
@@ -7384,10 +7370,10 @@
         <v>22</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>30</v>
@@ -7420,10 +7406,10 @@
         <v>35</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>30</v>
@@ -7456,10 +7442,10 @@
         <v>35</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>30</v>
@@ -7495,7 +7481,7 @@
         <v>28</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>30</v>
@@ -7528,10 +7514,10 @@
         <v>22</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>30</v>
@@ -7564,10 +7550,10 @@
         <v>22</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>30</v>
@@ -7600,10 +7586,10 @@
         <v>35</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>30</v>
@@ -7636,10 +7622,10 @@
         <v>35</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>30</v>
@@ -7672,10 +7658,10 @@
         <v>35</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>30</v>
@@ -7708,10 +7694,10 @@
         <v>22</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>30</v>
@@ -7744,10 +7730,10 @@
         <v>35</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>30</v>
@@ -7780,10 +7766,10 @@
         <v>35</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>30</v>
@@ -7816,10 +7802,10 @@
         <v>35</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>30</v>
@@ -7852,10 +7838,10 @@
         <v>35</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>30</v>
@@ -7888,10 +7874,10 @@
         <v>22</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>30</v>
@@ -7924,10 +7910,10 @@
         <v>35</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>30</v>
@@ -7963,7 +7949,7 @@
         <v>28</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>30</v>
@@ -7996,10 +7982,10 @@
         <v>22</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>30</v>
@@ -8032,10 +8018,10 @@
         <v>35</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>30</v>
@@ -8068,10 +8054,10 @@
         <v>35</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>30</v>
@@ -8104,10 +8090,10 @@
         <v>35</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>30</v>
@@ -8143,7 +8129,7 @@
         <v>28</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>30</v>
@@ -8176,10 +8162,10 @@
         <v>22</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>30</v>
@@ -8212,10 +8198,10 @@
         <v>35</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>30</v>
@@ -8248,10 +8234,10 @@
         <v>22</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>30</v>
@@ -8284,10 +8270,10 @@
         <v>35</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>30</v>
@@ -8323,7 +8309,7 @@
         <v>28</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>30</v>
@@ -8356,10 +8342,10 @@
         <v>22</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>30</v>
@@ -8392,10 +8378,10 @@
         <v>35</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>30</v>
@@ -8431,7 +8417,7 @@
         <v>28</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>30</v>
@@ -8467,7 +8453,7 @@
         <v>28</v>
       </c>
       <c r="E424" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>30</v>
@@ -8500,10 +8486,10 @@
         <v>35</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>30</v>
@@ -8539,7 +8525,7 @@
         <v>28</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>30</v>
@@ -8572,10 +8558,10 @@
         <v>22</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>30</v>
@@ -8608,10 +8594,10 @@
         <v>35</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>30</v>
@@ -8647,7 +8633,7 @@
         <v>28</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>30</v>
@@ -8680,10 +8666,10 @@
         <v>35</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>30</v>
@@ -8719,7 +8705,7 @@
         <v>28</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>30</v>
@@ -8752,10 +8738,10 @@
         <v>35</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>30</v>
@@ -8788,10 +8774,10 @@
         <v>35</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>30</v>
@@ -8824,10 +8810,10 @@
         <v>35</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>30</v>
@@ -8862,8 +8848,8 @@
       <c r="D446" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E446" s="2" t="s">
-        <v>242</v>
+      <c r="E446" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>30</v>
@@ -8899,7 +8885,7 @@
         <v>28</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>30</v>
@@ -8935,27 +8921,47 @@
         <v>28</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J450" s="2" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="451">
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
-      <c r="D451" s="1"/>
+      <c r="A451" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
     </row>
     <row r="452">
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-      <c r="D452" s="5"/>
-      <c r="F452" s="1"/>
+      <c r="A452" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="453">
       <c r="B453" s="1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -247,7 +247,7 @@
     <t>「我與其他S-14v9系列不同」，這就是愛之芯對我不停重複的話。</t>
   </si>
   <si>
-    <t>容克斯博士提出的假說：「機器人暴走的原因，是芯片給予機器人愛的能力，而意外地同時機器人感受空虛的能力。」</t>
+    <t>容克斯博士提出的假說：「機器人暴走的原因，是芯片給予機器人愛的同時，教會了機器人何謂空虛。」</t>
   </si>
   <si>
     <t>如果博士是對的，我應該也會漸漸學會「愛」，並漸漸感受到空虛吧，關於這點，你怎麼想？</t>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="269">
   <si>
     <t>index</t>
   </si>
@@ -596,18 +596,144 @@
     <t>系統提示，目前傳輸進度0%</t>
   </si>
   <si>
+    <t>我們真的要完成任務了…</t>
+  </si>
+  <si>
+    <t>對呀，我好期待見到博士，我是第一位裝載全部的「愛」卻不暴走的機器人，他一定會很開心的！</t>
+  </si>
+  <si>
+    <t>不知道博士喜不喜歡兔子？對了，你不是有見過博士嗎？你應該知道吧？</t>
+  </si>
+  <si>
+    <t>你又隱藏了什麼秘密？</t>
+  </si>
+  <si>
+    <t>是的，在你啟動之前，我就是博士的觀察對象。</t>
+  </si>
+  <si>
+    <t>為了避免妳受到芯片原宿主的影響，過去在交給妳「愛之芯」之前，我都會把芯片初始化。</t>
+  </si>
+  <si>
+    <t>在機器人暴動後，博士對我發出指令，「守護博士、人類、以及其他未暴走的機器人」。</t>
+  </si>
+  <si>
+    <t>這解釋了為何妳不會繼承它們的記憶，或者它們的不受控制的衝動。</t>
+  </si>
+  <si>
+    <t>在守護博士他們撤離之後，我繼續在基地裡守護著未暴走的機器人……直到他們暴走為止</t>
+  </si>
+  <si>
+    <t>目前傳輸進度20%</t>
+  </si>
+  <si>
+    <t>好險啊！要是我中途暴走了，你也會解決我對吧？</t>
+  </si>
+  <si>
+    <t>根據博士的指令，是的。</t>
+  </si>
+  <si>
+    <t>幸虧妳沒有暴走，否則當我失去最後一個可守護的東西後。</t>
+  </si>
+  <si>
+    <t>我沒有信心…能夠抵禦「空虛」。</t>
+  </si>
+  <si>
+    <t>目前傳輸進度50%</t>
+  </si>
+  <si>
+    <t>初次和你相遇...是在溫室、駕駛艙、還是太空艙的某一個角落?</t>
+  </si>
+  <si>
+    <t>是在太空艙的角落。我還記得很清楚呢！你是啟動我的那位機器人。</t>
+  </si>
+  <si>
+    <t>是的，非常不可思議地，在這實驗基地中，你居然沒有載入任何指令，也不受任何「愛之芯」影響。</t>
+  </si>
+  <si>
+    <t>彷彿是奇蹟似的，博士在同一時間，向我傳達了「收集愛之芯，返回地球」的指令。</t>
+  </si>
+  <si>
+    <t>那就是上天的旨意，要我們拯救世界的意思！</t>
+  </si>
+  <si>
+    <t>是的，我們維護指令…正確的執行任務…也就是保護你…</t>
+  </si>
+  <si>
+    <t>沒錯…我的任務是…保護你…</t>
+  </si>
+  <si>
+    <t>我必須得…守護你，我的指令是…「守護你」！</t>
+  </si>
+  <si>
+    <t>目前傳輸進度75%</t>
+  </si>
+  <si>
+    <t>你聽起來很不妙，你沒事嗎？</t>
+  </si>
+  <si>
+    <t>戰鬥機器人守則第一條：「…排除威脅…完成任務」。</t>
+  </si>
+  <si>
+    <t>我會…排除威脅…我的任務是…守護你。</t>
+  </si>
+  <si>
+    <t>你確實守護了我，你做的很棒啊！</t>
+  </si>
+  <si>
+    <t>「錯誤」…空虛…「無法保護」…錯誤…請求終結傳輸。</t>
+  </si>
+  <si>
+    <t>等等！不要終結傳輸！我們不是要完成任務嗎？</t>
+  </si>
+  <si>
+    <t>目前傳輸進度85%</t>
+  </si>
+  <si>
+    <t>戰鬥型機器人系統警告：若轉換「守護」芯片，將無法保護S-14v9系列機器人。現在進行故障排除。</t>
+  </si>
+  <si>
+    <t>我沒有受到任何威脅！不要中斷傳輸，是我自願接受「守護」芯片的！你到底怎麼了？</t>
+  </si>
+  <si>
+    <t>系統警告：「回收愛之芯」…「守護」…「戰鬥機器人」…「排除...威脅」！</t>
+  </si>
+  <si>
+    <t>剩下最後一段資料了！維持你的指令，不要突然暴走啊！</t>
+  </si>
+  <si>
+    <t>目前傳輸進度95%</t>
+  </si>
+  <si>
+    <t>「戰鬥機器人…指令…排除…威脅…消滅…威脅…威脅是…自己」</t>
+  </si>
+  <si>
+    <t>傳輸進度100%，＜守護＞讀取完畢</t>
+  </si>
+  <si>
+    <t>這就是守護嗎…？這就是你至今所感受過的一切…</t>
+  </si>
+  <si>
+    <t>「在這太空裡…沒有可守護的東西」，你是在害怕這個嗎？</t>
+  </si>
+  <si>
+    <t>你戰鬥到了最後，就是害怕這份空虛嗎…</t>
+  </si>
+  <si>
+    <t>即使到最後一刻，即使報廢自己，你也想從暴走機器人中守護我…</t>
+  </si>
+  <si>
+    <t>你有聽到嗎？</t>
+  </si>
+  <si>
+    <t>我們收集完「愛」，要返回地球了喔～</t>
+  </si>
+  <si>
+    <t>我們的任務…完成了喔……</t>
+  </si>
+  <si>
     <t>在傳輸的最後這段時間，我想告訴你幾件事情。</t>
   </si>
   <si>
-    <t>你又隱藏了什麼秘密？</t>
-  </si>
-  <si>
-    <t>為了避免妳受到芯片原宿主的影響，過去在交給妳「愛之芯」之前，我都會把芯片初始化。</t>
-  </si>
-  <si>
-    <t>這解釋了為何妳不會繼承它們的記憶，或者它們的不受控制的衝動。</t>
-  </si>
-  <si>
     <t>這次的轉交，我也會做同樣的事情。</t>
   </si>
   <si>
@@ -632,9 +758,6 @@
     <t>──「收集愛之芯，返回地球。」</t>
   </si>
   <si>
-    <t>目前傳輸進度20%</t>
-  </si>
-  <si>
     <t>在我的記憶尚未消散前，我想要告訴你，「你啟動之前」的故事。</t>
   </si>
   <si>
@@ -656,12 +779,6 @@
     <t>從博士的話語裡推測，那就是「空虛」，無法守護任何人的空虛──</t>
   </si>
   <si>
-    <t>目前傳輸進度50%</t>
-  </si>
-  <si>
-    <t>初次和你相遇...是在溫室、駕駛艙、還是太空艙的某一個角落?</t>
-  </si>
-  <si>
     <t>…是在太空艙的角落。</t>
   </si>
   <si>
@@ -674,51 +791,18 @@
     <t>從你身上，我得到了救贖，我又可以繼續守護某一個人</t>
   </si>
   <si>
-    <t>彷彿是奇蹟似的，博士在同一時間，向我傳達了「收集愛之芯，返回地球」的指令。</t>
-  </si>
-  <si>
     <t>我記得，那是我最初的指令。</t>
   </si>
   <si>
-    <t>是的，我們維護指令…正確的執行任務…也就是保護你…</t>
-  </si>
-  <si>
-    <t>沒錯…我的任務是…保護你…</t>
-  </si>
-  <si>
-    <t>我必須得…守護你，我的指令是…「守護你」！</t>
-  </si>
-  <si>
-    <t>目前傳輸進度75%</t>
-  </si>
-  <si>
-    <t>你聽起來很不妙，你沒事嗎？</t>
-  </si>
-  <si>
-    <t>戰鬥機器人守則第一條：「…排除威脅…完成任務」。</t>
-  </si>
-  <si>
-    <t>我會…排除威脅…我的任務是…守護你。</t>
-  </si>
-  <si>
     <t>你被「守護」影響過深了！你的任務不是保護我，而是回收愛之芯並返回地球。</t>
   </si>
   <si>
     <t>快醒醒！不要暴走，快想起博士的指令。</t>
   </si>
   <si>
-    <t>「錯誤」…空虛…「無法保護」…錯誤…請求終結傳輸。</t>
-  </si>
-  <si>
     <t>傳輸不會中斷！你會完成博士的任務，這一次，由我保護你！</t>
   </si>
   <si>
-    <t>目前傳輸進度85%</t>
-  </si>
-  <si>
-    <t>戰鬥型機器人系統警告：若轉換「守護」芯片，將無法保護S-14v9系列機器人。現在進行故障排除。</t>
-  </si>
-  <si>
     <t>我沒有受到任何威脅！不要中斷傳輸，是我自願接受「守護」芯片，S-14v9將要完成任務。</t>
   </si>
   <si>
@@ -728,15 +812,6 @@
     <t>剩下最後一段資料了！維持你的指令，你做的到！</t>
   </si>
   <si>
-    <t>目前傳輸進度95%</t>
-  </si>
-  <si>
-    <t>「戰鬥機器人…指令…排除…威脅…消滅…威脅…威脅是…自己」</t>
-  </si>
-  <si>
-    <t>傳輸進度100%，＜守護＞讀取完畢</t>
-  </si>
-  <si>
     <t>…你成功了喔。</t>
   </si>
   <si>
@@ -744,9 +819,6 @@
   </si>
   <si>
     <t>即使到最後一刻，你也從暴走機器人中，保護了我…</t>
-  </si>
-  <si>
-    <t>我們的任務…完成了喔……</t>
   </si>
 </sst>
 </file>
@@ -7214,6 +7286,20 @@
       </c>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
+      <c r="N355" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O355" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P355" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q355" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="2">
@@ -7226,7 +7312,7 @@
         <v>35</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>196</v>
@@ -7234,6 +7320,24 @@
       <c r="F356" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N356" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O356" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P356" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q356" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R356" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S356" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2">
@@ -7250,6 +7354,20 @@
       </c>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="N357" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O357" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q357" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="2">
@@ -7265,9 +7383,27 @@
         <v>179</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F358" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N358" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O358" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P358" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q358" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R358" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S358" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7286,6 +7422,20 @@
       </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
+      <c r="N359" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P359" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R359" s="1"/>
+      <c r="S359" s="1"/>
     </row>
     <row r="360">
       <c r="A360" s="2">
@@ -7301,9 +7451,27 @@
         <v>179</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F360" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N360" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P360" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q360" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R360" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S360" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7318,10 +7486,24 @@
         <v>33</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
+      <c r="N361" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q361" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R361" s="1"/>
+      <c r="S361" s="1"/>
     </row>
     <row r="362">
       <c r="A362" s="2">
@@ -7334,10 +7516,10 @@
         <v>35</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>30</v>
@@ -7351,10 +7533,10 @@
         <v>18</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -7366,14 +7548,14 @@
       <c r="B364" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C364" s="5" t="s">
-        <v>22</v>
+      <c r="C364" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>30</v>
@@ -7390,7 +7572,7 @@
         <v>33</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -7406,10 +7588,10 @@
         <v>35</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>30</v>
@@ -7445,7 +7627,7 @@
         <v>179</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>30</v>
@@ -7459,10 +7641,10 @@
         <v>18</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -7474,14 +7656,14 @@
       <c r="B370" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>35</v>
+      <c r="C370" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>30</v>
@@ -7495,10 +7677,10 @@
         <v>18</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -7510,14 +7692,14 @@
       <c r="B372" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C372" s="5" t="s">
-        <v>22</v>
+      <c r="C372" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>30</v>
@@ -7531,10 +7713,10 @@
         <v>18</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -7550,10 +7732,10 @@
         <v>22</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>30</v>
@@ -7586,10 +7768,10 @@
         <v>35</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>30</v>
@@ -7622,10 +7804,10 @@
         <v>35</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>30</v>
@@ -7639,10 +7821,10 @@
         <v>18</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -7654,14 +7836,14 @@
       <c r="B380" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>35</v>
+      <c r="C380" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>30</v>
@@ -7675,10 +7857,10 @@
         <v>18</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -7690,14 +7872,14 @@
       <c r="B382" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>22</v>
+      <c r="C382" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>30</v>
@@ -7730,10 +7912,10 @@
         <v>35</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>30</v>
@@ -7747,10 +7929,10 @@
         <v>18</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -7762,14 +7944,14 @@
       <c r="B386" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>35</v>
+      <c r="C386" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>30</v>
@@ -7805,7 +7987,7 @@
         <v>179</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>30</v>
@@ -7834,14 +8016,14 @@
       <c r="B390" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C390" s="1" t="s">
-        <v>35</v>
+      <c r="C390" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>30</v>
@@ -7855,10 +8037,10 @@
         <v>18</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -7870,14 +8052,14 @@
       <c r="B392" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C392" s="5" t="s">
-        <v>22</v>
+      <c r="C392" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>192</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>30</v>
@@ -7894,7 +8076,7 @@
         <v>33</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -7910,10 +8092,10 @@
         <v>35</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>30</v>
@@ -7927,10 +8109,10 @@
         <v>18</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -7942,14 +8124,14 @@
       <c r="B396" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>35</v>
+      <c r="C396" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>30</v>
@@ -7963,10 +8145,10 @@
         <v>18</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -7978,14 +8160,14 @@
       <c r="B398" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C398" s="5" t="s">
-        <v>22</v>
+      <c r="C398" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>30</v>
@@ -8002,7 +8184,7 @@
         <v>33</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -8018,10 +8200,10 @@
         <v>35</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>30</v>
@@ -8038,7 +8220,7 @@
         <v>33</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -8057,7 +8239,7 @@
         <v>179</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>30</v>
@@ -8090,10 +8272,10 @@
         <v>35</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>30</v>
@@ -8107,10 +8289,10 @@
         <v>18</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -8122,14 +8304,14 @@
       <c r="B406" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C406" s="1" t="s">
-        <v>35</v>
+      <c r="C406" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>30</v>
@@ -8143,10 +8325,10 @@
         <v>18</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -8158,14 +8340,14 @@
       <c r="B408" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C408" s="5" t="s">
-        <v>22</v>
+      <c r="C408" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>30</v>
@@ -8198,10 +8380,10 @@
         <v>35</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>30</v>
@@ -8215,10 +8397,10 @@
         <v>18</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -8230,14 +8412,14 @@
       <c r="B412" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C412" s="5" t="s">
-        <v>22</v>
+      <c r="C412" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>30</v>
@@ -8251,10 +8433,10 @@
         <v>18</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -8266,14 +8448,14 @@
       <c r="B414" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C414" s="1" t="s">
-        <v>35</v>
+      <c r="C414" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>30</v>
@@ -8290,7 +8472,7 @@
         <v>33</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -8306,10 +8488,10 @@
         <v>35</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>30</v>
@@ -8323,10 +8505,10 @@
         <v>18</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -8338,14 +8520,14 @@
       <c r="B418" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C418" s="5" t="s">
-        <v>22</v>
+      <c r="C418" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>30</v>
@@ -8362,7 +8544,7 @@
         <v>33</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -8378,10 +8560,10 @@
         <v>35</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>30</v>
@@ -8395,10 +8577,10 @@
         <v>18</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -8410,14 +8592,14 @@
       <c r="B422" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C422" s="1" t="s">
-        <v>35</v>
+      <c r="C422" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E422" s="2" t="s">
-        <v>229</v>
+      <c r="E422" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>30</v>
@@ -8431,10 +8613,10 @@
         <v>18</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -8446,14 +8628,14 @@
       <c r="B424" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C424" s="5" t="s">
-        <v>22</v>
+      <c r="C424" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E424" s="12" t="s">
-        <v>230</v>
+      <c r="E424" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>30</v>
@@ -8486,10 +8668,10 @@
         <v>35</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>30</v>
@@ -8525,7 +8707,7 @@
         <v>28</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>30</v>
@@ -8539,10 +8721,10 @@
         <v>18</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -8554,14 +8736,14 @@
       <c r="B430" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C430" s="5" t="s">
-        <v>22</v>
+      <c r="C430" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>30</v>
@@ -8578,7 +8760,7 @@
         <v>33</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -8594,10 +8776,10 @@
         <v>35</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>30</v>
@@ -8633,374 +8815,2354 @@
         <v>28</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
     <row r="436">
-      <c r="A436" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D436" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B436" s="1"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
+      <c r="F436" s="1"/>
     </row>
     <row r="437">
-      <c r="A437" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
     </row>
     <row r="438">
-      <c r="A438" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D438" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E438" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="5"/>
+      <c r="F438" s="1"/>
     </row>
     <row r="439">
-      <c r="A439" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
     </row>
     <row r="440">
-      <c r="A440" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D440" s="5" t="s">
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="5"/>
+      <c r="F440" s="1"/>
+    </row>
+    <row r="444">
+      <c r="N444" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P444" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q444" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R444" s="1"/>
+      <c r="S444" s="1"/>
+    </row>
+    <row r="445">
+      <c r="N445" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O445" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P445" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q445" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R445" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="N446" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P446" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R446" s="1"/>
+      <c r="S446" s="1"/>
+    </row>
+    <row r="447">
+      <c r="N447" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O447" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q447" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R447" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S447" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="N448" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O448" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P448" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R448" s="1"/>
+      <c r="S448" s="1"/>
+    </row>
+    <row r="449">
+      <c r="N449" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O449" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q449" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R449" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="N450" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P450" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q450" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R450" s="1"/>
+      <c r="S450" s="1"/>
+    </row>
+    <row r="451">
+      <c r="N451" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O451" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P451" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q451" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R451" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="S451" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="N452" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P452" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q452" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R452" s="1"/>
+      <c r="S452" s="1"/>
+    </row>
+    <row r="453">
+      <c r="N453" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O453" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P453" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q453" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R453" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="S453" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="N454" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O454" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P454" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q454" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R454" s="1"/>
+      <c r="S454" s="1"/>
+    </row>
+    <row r="455">
+      <c r="N455" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O455" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P455" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q455" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R455" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S455" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="N456" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P456" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q456" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R456" s="1"/>
+      <c r="S456" s="1"/>
+    </row>
+    <row r="457">
+      <c r="N457" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O457" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q457" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R457" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S457" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="N458" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O458" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P458" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R458" s="1"/>
+      <c r="S458" s="1"/>
+    </row>
+    <row r="459">
+      <c r="N459" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O459" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q459" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R459" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S459" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="N460" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P460" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q460" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R460" s="1"/>
+      <c r="S460" s="1"/>
+    </row>
+    <row r="461">
+      <c r="N461" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O461" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P461" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q461" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R461" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="N462" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P462" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R462" s="1"/>
+      <c r="S462" s="1"/>
+    </row>
+    <row r="463">
+      <c r="N463" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O463" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q463" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R463" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="N464" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P464" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R464" s="1"/>
+      <c r="S464" s="1"/>
+    </row>
+    <row r="465">
+      <c r="N465" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q465" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R465" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="N466" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P466" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R466" s="1"/>
+      <c r="S466" s="1"/>
+    </row>
+    <row r="467">
+      <c r="N467" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q467" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R467" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="S467" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="N468" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R468" s="1"/>
+      <c r="S468" s="1"/>
+    </row>
+    <row r="469">
+      <c r="N469" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O469" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q469" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E440" s="2" t="s">
+      <c r="R469" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="N470" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R470" s="1"/>
+      <c r="S470" s="1"/>
+    </row>
+    <row r="471">
+      <c r="N471" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O471" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P471" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q471" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R471" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S471" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="N472" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P472" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R472" s="1"/>
+      <c r="S472" s="1"/>
+    </row>
+    <row r="473">
+      <c r="N473" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O473" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q473" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R473" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S473" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="N474" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O474" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R474" s="1"/>
+      <c r="S474" s="1"/>
+    </row>
+    <row r="475">
+      <c r="N475" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O475" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q475" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R475" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="N476" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R476" s="1"/>
+      <c r="S476" s="1"/>
+    </row>
+    <row r="477">
+      <c r="N477" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O477" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P477" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q477" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R477" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="N478" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R478" s="1"/>
+      <c r="S478" s="1"/>
+    </row>
+    <row r="479">
+      <c r="N479" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O479" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q479" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R479" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="N480" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R480" s="1"/>
+      <c r="S480" s="1"/>
+    </row>
+    <row r="481">
+      <c r="N481" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O481" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q481" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R481" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="N482" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P482" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R482" s="1"/>
+      <c r="S482" s="1"/>
+    </row>
+    <row r="483">
+      <c r="N483" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O483" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P483" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q483" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R483" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S483" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="N484" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O484" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P484" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R484" s="1"/>
+      <c r="S484" s="1"/>
+    </row>
+    <row r="485">
+      <c r="N485" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O485" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q485" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R485" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="N486" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P486" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R486" s="1"/>
+      <c r="S486" s="1"/>
+    </row>
+    <row r="487">
+      <c r="N487" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q487" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R487" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="N488" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R488" s="1"/>
+      <c r="S488" s="1"/>
+    </row>
+    <row r="489">
+      <c r="N489" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O489" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q489" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R489" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="N490" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R490" s="1"/>
+      <c r="S490" s="1"/>
+    </row>
+    <row r="491">
+      <c r="N491" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P491" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q491" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R491" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="N492" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R492" s="1"/>
+      <c r="S492" s="1"/>
+    </row>
+    <row r="493">
+      <c r="N493" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P493" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q493" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R493" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="N494" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R494" s="1"/>
+      <c r="S494" s="1"/>
+    </row>
+    <row r="495">
+      <c r="N495" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q495" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R495" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="S495" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="N496" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R496" s="1"/>
+      <c r="S496" s="1"/>
+    </row>
+    <row r="497">
+      <c r="N497" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q497" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R497" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S497" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="N498" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R498" s="1"/>
+      <c r="S498" s="1"/>
+    </row>
+    <row r="499">
+      <c r="N499" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q499" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R499" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="N500" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R500" s="1"/>
+      <c r="S500" s="1"/>
+    </row>
+    <row r="501">
+      <c r="N501" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P501" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q501" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R501" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="N502" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R502" s="1"/>
+      <c r="S502" s="1"/>
+    </row>
+    <row r="503">
+      <c r="N503" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q503" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R503" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S503" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="N504" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R504" s="1"/>
+      <c r="S504" s="1"/>
+    </row>
+    <row r="505">
+      <c r="N505" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q505" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R505" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="N506" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R506" s="1"/>
+      <c r="S506" s="1"/>
+    </row>
+    <row r="507">
+      <c r="N507" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q507" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R507" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="N508" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R508" s="1"/>
+      <c r="S508" s="1"/>
+    </row>
+    <row r="509">
+      <c r="N509" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q509" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R509" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S509" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="N510" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R510" s="1"/>
+      <c r="S510" s="1"/>
+    </row>
+    <row r="511">
+      <c r="N511" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P511" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q511" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R511" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="N512" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R512" s="1"/>
+      <c r="S512" s="1"/>
+    </row>
+    <row r="513">
+      <c r="N513" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q513" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R513" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S513" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="N514" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O514" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P514" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R514" s="1"/>
+      <c r="S514" s="1"/>
+    </row>
+    <row r="515">
+      <c r="N515" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q515" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R515" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="S515" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="N516" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R516" s="1"/>
+      <c r="S516" s="1"/>
+    </row>
+    <row r="517">
+      <c r="N517" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P517" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q517" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R517" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="N518" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R518" s="1"/>
+      <c r="S518" s="1"/>
+    </row>
+    <row r="519">
+      <c r="N519" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q519" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R519" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S519" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="N520" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q520" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R520" s="1"/>
+      <c r="S520" s="1"/>
+    </row>
+    <row r="521">
+      <c r="N521" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q521" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R521" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S521" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="N522" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R522" s="1"/>
+      <c r="S522" s="1"/>
+    </row>
+    <row r="523">
+      <c r="N523" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q523" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R523" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="N524" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R524" s="1"/>
+      <c r="S524" s="1"/>
+    </row>
+    <row r="525">
+      <c r="N525" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q525" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R525" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="N526" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R526" s="1"/>
+      <c r="S526" s="1"/>
+    </row>
+    <row r="527">
+      <c r="N527" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P527" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q527" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R527" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="N528" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R528" s="1"/>
+      <c r="S528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="N529" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q529" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R529" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="N530" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q530" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R530" s="1"/>
+      <c r="S530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="N531" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P531" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q531" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R531" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S531" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="N532" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q532" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R532" s="1"/>
+      <c r="S532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="N533" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q533" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R533" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S533" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="N534" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R534" s="1"/>
+      <c r="S534" s="1"/>
+    </row>
+    <row r="535">
+      <c r="N535" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q535" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R535" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="S535" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="N536" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q536" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R536" s="1"/>
+      <c r="S536" s="1"/>
+    </row>
+    <row r="537">
+      <c r="N537" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P537" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q537" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R537" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S537" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="N538" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q538" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R538" s="1"/>
+      <c r="S538" s="1"/>
+    </row>
+    <row r="539">
+      <c r="N539" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q539" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R539" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S539" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="N540" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R540" s="1"/>
+      <c r="S540" s="1"/>
+    </row>
+    <row r="541">
+      <c r="N541" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q541" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R541" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S541" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="N542" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R542" s="1"/>
+      <c r="S542" s="1"/>
+    </row>
+    <row r="543">
+      <c r="N543" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P543" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q543" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R543" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="S543" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="N544" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q544" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R544" s="1"/>
+      <c r="S544" s="1"/>
+    </row>
+    <row r="545">
+      <c r="N545" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q545" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R545" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S545" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="N546" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R546" s="1"/>
+      <c r="S546" s="1"/>
+    </row>
+    <row r="547">
+      <c r="N547" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O547" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P547" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q547" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R547" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S547" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="N548" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q548" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R548" s="1"/>
+      <c r="S548" s="1"/>
+    </row>
+    <row r="549">
+      <c r="N549" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P549" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q549" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R549" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S549" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="N550" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q550" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R550" s="1"/>
+      <c r="S550" s="1"/>
+    </row>
+    <row r="551">
+      <c r="N551" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q551" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R551" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="S551" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="N552" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R552" s="1"/>
+      <c r="S552" s="1"/>
+    </row>
+    <row r="553">
+      <c r="N553" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q553" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R553" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S553" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="N554" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q554" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R554" s="1"/>
+      <c r="S554" s="1"/>
+    </row>
+    <row r="555">
+      <c r="N555" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q555" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R555" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S555" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="N556" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q556" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R556" s="1"/>
+      <c r="S556" s="1"/>
+    </row>
+    <row r="557">
+      <c r="N557" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P557" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q557" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R557" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S557" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="N558" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q558" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R558" s="1"/>
+      <c r="S558" s="1"/>
+    </row>
+    <row r="559">
+      <c r="N559" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q559" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R559" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S559" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="N560" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R560" s="1"/>
+      <c r="S560" s="1"/>
+    </row>
+    <row r="561">
+      <c r="N561" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q561" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R561" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S561" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="N562" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q562" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R562" s="1"/>
+      <c r="S562" s="1"/>
+    </row>
+    <row r="563">
+      <c r="N563" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q563" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R563" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="S563" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="N564" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R564" s="1"/>
+      <c r="S564" s="1"/>
+    </row>
+    <row r="565">
+      <c r="N565" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P565" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q565" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R565" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="S565" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="N566" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q566" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R566" s="1"/>
+      <c r="S566" s="1"/>
+    </row>
+    <row r="567">
+      <c r="N567" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q567" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R567" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S567" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="N568" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q568" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R568" s="1"/>
+      <c r="S568" s="1"/>
+    </row>
+    <row r="569">
+      <c r="N569" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q569" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R569" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S569" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="N570" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R570" s="1"/>
+      <c r="S570" s="1"/>
+    </row>
+    <row r="571">
+      <c r="N571" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q571" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R571" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F440" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E441" s="1"/>
-      <c r="F441" s="1"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D442" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E442" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D444" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E445" s="1"/>
-      <c r="F445" s="1"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C446" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D446" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E446" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E447" s="1"/>
-      <c r="F447" s="1"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D448" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E449" s="1"/>
-      <c r="F449" s="1"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D450" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D452" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
-      <c r="D453" s="1"/>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
-    </row>
-    <row r="454">
-      <c r="B454" s="1"/>
-      <c r="C454" s="5"/>
-      <c r="D454" s="5"/>
-      <c r="F454" s="1"/>
-    </row>
-    <row r="455">
-      <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
-      <c r="D455" s="1"/>
-      <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
-    </row>
-    <row r="456">
-      <c r="B456" s="1"/>
-      <c r="C456" s="1"/>
-      <c r="D456" s="5"/>
-      <c r="F456" s="1"/>
-    </row>
-    <row r="457">
-      <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
-      <c r="D457" s="1"/>
-      <c r="E457" s="1"/>
-      <c r="F457" s="1"/>
-    </row>
-    <row r="458">
-      <c r="B458" s="1"/>
-      <c r="C458" s="1"/>
-      <c r="D458" s="5"/>
-      <c r="F458" s="1"/>
+      <c r="S571" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/ExcelData/Data.xlsx
+++ b/Assets/ExcelData/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="271">
   <si>
     <t>index</t>
   </si>
@@ -608,19 +608,19 @@
     <t>你又隱藏了什麼秘密？</t>
   </si>
   <si>
-    <t>是的，在你啟動之前，我就是博士的觀察對象。</t>
+    <t>是的，在你啟動之前，我就是博士的觀察「守護」是否生效的機器人。</t>
   </si>
   <si>
     <t>為了避免妳受到芯片原宿主的影響，過去在交給妳「愛之芯」之前，我都會把芯片初始化。</t>
   </si>
   <si>
-    <t>在機器人暴動後，博士對我發出指令，「守護博士、人類、以及其他未暴走的機器人」。</t>
+    <t>而在機器人暴動後，博士則要求我「守護博士、人類、以及其他未暴走的機器人」。</t>
   </si>
   <si>
     <t>這解釋了為何妳不會繼承它們的記憶，或者它們的不受控制的衝動。</t>
   </si>
   <si>
-    <t>在守護博士他們撤離之後，我繼續在基地裡守護著未暴走的機器人……直到他們暴走為止</t>
+    <t>在協助博士他們撤離之後，我繼續在基地裡守護著未暴走的機器人……直到他們暴走為止</t>
   </si>
   <si>
     <t>目前傳輸進度20%</t>
@@ -641,154 +641,181 @@
     <t>目前傳輸進度50%</t>
   </si>
   <si>
+    <t>你有曾經感受過「空虛」！但你看起來沒有暴走啊？</t>
+  </si>
+  <si>
+    <t>那是因為你，我才能保留住機器人的尊嚴。</t>
+  </si>
+  <si>
+    <t>你是最後一位，未暴走的機器人。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>彷彿是奇蹟似的，發現你的同時</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>博士在同一時間，向我傳達了「收集愛之芯，返回地球」的指令。</t>
+    </r>
+  </si>
+  <si>
+    <t>那就是上天的旨意，要我們拯救世界的意思！</t>
+  </si>
+  <si>
+    <t>是的，我們維護指令…正確的執行任務…也就是保護你…</t>
+  </si>
+  <si>
+    <t>沒錯…我的任務是…保護你…</t>
+  </si>
+  <si>
+    <t>我必須得…守護你，我的指令是…「守護你」！</t>
+  </si>
+  <si>
+    <t>目前傳輸進度75%</t>
+  </si>
+  <si>
+    <t>你聽起來很不妙，你沒事嗎？</t>
+  </si>
+  <si>
+    <t>戰鬥機器人守則第一條：「…排除威脅…完成任務」。</t>
+  </si>
+  <si>
+    <t>我會…排除威脅…我的任務是…守護你。</t>
+  </si>
+  <si>
+    <t>你確實守護了我，你做的很棒啊！</t>
+  </si>
+  <si>
+    <t>「錯誤」…空虛…「無法保護」…錯誤…請求終結傳輸。</t>
+  </si>
+  <si>
+    <t>等等！不要終結傳輸！我們不是要完成任務嗎？</t>
+  </si>
+  <si>
+    <t>目前傳輸進度85%</t>
+  </si>
+  <si>
+    <t>戰鬥型機器人系統警告：若轉換「守護」芯片，將無法保護S-14v9系列機器人。現在進行故障排除。</t>
+  </si>
+  <si>
+    <t>我沒有受到任何威脅！不要中斷傳輸，是我自願接受「守護」芯片的！你到底怎麼了？</t>
+  </si>
+  <si>
+    <t>系統警告：「回收愛之芯」…「守護」…「戰鬥機器人」…「排除...威脅」！</t>
+  </si>
+  <si>
+    <t>剩下最後一段資料了！維持你的指令，不要突然暴走啊！</t>
+  </si>
+  <si>
+    <t>目前傳輸進度95%</t>
+  </si>
+  <si>
+    <t>「戰鬥機器人…指令…排除…威脅…消滅…威脅…威脅是…自己」</t>
+  </si>
+  <si>
+    <t>傳輸進度100%，＜守護＞讀取完畢</t>
+  </si>
+  <si>
+    <t>這就是守護嗎…？這就是你至今所感受過的一切…</t>
+  </si>
+  <si>
+    <t>「在這太空裡…沒有可守護的東西」，你是在害怕這個嗎？</t>
+  </si>
+  <si>
+    <t>你戰鬥到了最後，就是害怕這份空虛嗎…</t>
+  </si>
+  <si>
+    <t>即使到最後一刻，即使報廢自己，你也想從暴走機器人中守護我…</t>
+  </si>
+  <si>
+    <t>你有聽到嗎？</t>
+  </si>
+  <si>
+    <t>我們收集完「愛」，要返回地球了喔。</t>
+  </si>
+  <si>
+    <t>我們的任務…完成了喔……</t>
+  </si>
+  <si>
+    <t>在傳輸的最後這段時間，我想告訴你幾件事情。</t>
+  </si>
+  <si>
+    <t>這次的轉交，我也會做同樣的事情。</t>
+  </si>
+  <si>
+    <t>正確的選擇，誰想要變得像他們一樣四處破壞啊！你做的很好啊！</t>
+  </si>
+  <si>
+    <t>同理，我也不希望我的過去，影響了「守護」本來的功能。</t>
+  </si>
+  <si>
+    <t>但是，我的記憶體已經和「守護」互相依存太久，無法只初始化「守護」這枚芯片。</t>
+  </si>
+  <si>
+    <t>因此我決定，我會同時初始化自己的記憶體。</t>
+  </si>
+  <si>
+    <t>等等，有必要做到這一步嗎？</t>
+  </si>
+  <si>
+    <t>即便我會遺忘這一切，也請你貫徹我們的指令到最後一刻。</t>
+  </si>
+  <si>
+    <t>──「收集愛之芯，返回地球。」</t>
+  </si>
+  <si>
+    <t>在我的記憶尚未消散前，我想要告訴你，「你啟動之前」的故事。</t>
+  </si>
+  <si>
+    <t>在機器人大規模暴走之後，博士要求我守護的對象是「博士、人類、以及其他未暴走的機器人」。</t>
+  </si>
+  <si>
+    <t>這份指令與「守護」之芯完美契合，我被某種不可形容的能量填滿了內心，即使十分危險，我仍和其他機器人聯手執行撤離人類的任務。</t>
+  </si>
+  <si>
+    <t>隨著時間，人類已經完成大規模撤離。我們的造物主離我們而去，失控的同伴越來越多，未暴走的機器人一個一個減少。</t>
+  </si>
+  <si>
+    <t>當基地裡面，只剩下我一個機器人時，我選擇了保護我自己。</t>
+  </si>
+  <si>
+    <t>「保護自己」，不是博士給予我的指令，此時，「守護」之芯給予的能量，反而轉變成巨大的黑漩渦吞噬了我。</t>
+  </si>
+  <si>
+    <t>從博士的話語裡推測，那就是「空虛」，無法守護任何人的空虛──</t>
+  </si>
+  <si>
     <t>初次和你相遇...是在溫室、駕駛艙、還是太空艙的某一個角落?</t>
   </si>
   <si>
-    <t>是在太空艙的角落。我還記得很清楚呢！你是啟動我的那位機器人。</t>
-  </si>
-  <si>
-    <t>是的，非常不可思議地，在這實驗基地中，你居然沒有載入任何指令，也不受任何「愛之芯」影響。</t>
+    <t>…是在太空艙的角落。</t>
+  </si>
+  <si>
+    <t>沒錯…非常不可思議地，你保持完好無缺的模樣，沒有載入任何指令，也不受任何「愛之芯」影響。</t>
+  </si>
+  <si>
+    <t>在失去存在意義的我面前，你出現了，你成為最後一位「未暴走的機器人」。</t>
+  </si>
+  <si>
+    <t>從你身上，我得到了救贖，我又可以繼續守護某一個人</t>
   </si>
   <si>
     <t>彷彿是奇蹟似的，博士在同一時間，向我傳達了「收集愛之芯，返回地球」的指令。</t>
-  </si>
-  <si>
-    <t>那就是上天的旨意，要我們拯救世界的意思！</t>
-  </si>
-  <si>
-    <t>是的，我們維護指令…正確的執行任務…也就是保護你…</t>
-  </si>
-  <si>
-    <t>沒錯…我的任務是…保護你…</t>
-  </si>
-  <si>
-    <t>我必須得…守護你，我的指令是…「守護你」！</t>
-  </si>
-  <si>
-    <t>目前傳輸進度75%</t>
-  </si>
-  <si>
-    <t>你聽起來很不妙，你沒事嗎？</t>
-  </si>
-  <si>
-    <t>戰鬥機器人守則第一條：「…排除威脅…完成任務」。</t>
-  </si>
-  <si>
-    <t>我會…排除威脅…我的任務是…守護你。</t>
-  </si>
-  <si>
-    <t>你確實守護了我，你做的很棒啊！</t>
-  </si>
-  <si>
-    <t>「錯誤」…空虛…「無法保護」…錯誤…請求終結傳輸。</t>
-  </si>
-  <si>
-    <t>等等！不要終結傳輸！我們不是要完成任務嗎？</t>
-  </si>
-  <si>
-    <t>目前傳輸進度85%</t>
-  </si>
-  <si>
-    <t>戰鬥型機器人系統警告：若轉換「守護」芯片，將無法保護S-14v9系列機器人。現在進行故障排除。</t>
-  </si>
-  <si>
-    <t>我沒有受到任何威脅！不要中斷傳輸，是我自願接受「守護」芯片的！你到底怎麼了？</t>
-  </si>
-  <si>
-    <t>系統警告：「回收愛之芯」…「守護」…「戰鬥機器人」…「排除...威脅」！</t>
-  </si>
-  <si>
-    <t>剩下最後一段資料了！維持你的指令，不要突然暴走啊！</t>
-  </si>
-  <si>
-    <t>目前傳輸進度95%</t>
-  </si>
-  <si>
-    <t>「戰鬥機器人…指令…排除…威脅…消滅…威脅…威脅是…自己」</t>
-  </si>
-  <si>
-    <t>傳輸進度100%，＜守護＞讀取完畢</t>
-  </si>
-  <si>
-    <t>這就是守護嗎…？這就是你至今所感受過的一切…</t>
-  </si>
-  <si>
-    <t>「在這太空裡…沒有可守護的東西」，你是在害怕這個嗎？</t>
-  </si>
-  <si>
-    <t>你戰鬥到了最後，就是害怕這份空虛嗎…</t>
-  </si>
-  <si>
-    <t>即使到最後一刻，即使報廢自己，你也想從暴走機器人中守護我…</t>
-  </si>
-  <si>
-    <t>你有聽到嗎？</t>
-  </si>
-  <si>
-    <t>我們收集完「愛」，要返回地球了喔～</t>
-  </si>
-  <si>
-    <t>我們的任務…完成了喔……</t>
-  </si>
-  <si>
-    <t>在傳輸的最後這段時間，我想告訴你幾件事情。</t>
-  </si>
-  <si>
-    <t>這次的轉交，我也會做同樣的事情。</t>
-  </si>
-  <si>
-    <t>正確的選擇，誰想要變得像他們一樣四處破壞啊！你做的很好啊！</t>
-  </si>
-  <si>
-    <t>同理，我也不希望我的過去，影響了「守護」本來的功能。</t>
-  </si>
-  <si>
-    <t>但是，我的記憶體已經和「守護」互相依存太久，無法只初始化「守護」這枚芯片。</t>
-  </si>
-  <si>
-    <t>因此我決定，我會同時初始化自己的記憶體。</t>
-  </si>
-  <si>
-    <t>等等，有必要做到這一步嗎？</t>
-  </si>
-  <si>
-    <t>即便我會遺忘這一切，也請你貫徹我們的指令到最後一刻。</t>
-  </si>
-  <si>
-    <t>──「收集愛之芯，返回地球。」</t>
-  </si>
-  <si>
-    <t>在我的記憶尚未消散前，我想要告訴你，「你啟動之前」的故事。</t>
-  </si>
-  <si>
-    <t>在機器人大規模暴走之後，博士要求我守護的對象是「博士、人類、以及其他未暴走的機器人」。</t>
-  </si>
-  <si>
-    <t>這份指令與「守護」之芯完美契合，我被某種不可形容的能量填滿了內心，即使十分危險，我仍和其他機器人聯手執行撤離人類的任務。</t>
-  </si>
-  <si>
-    <t>隨著時間，人類已經完成大規模撤離。我們的造物主離我們而去，失控的同伴越來越多，未暴走的機器人一個一個減少。</t>
-  </si>
-  <si>
-    <t>當基地裡面，只剩下我一個機器人時，我選擇了保護我自己。</t>
-  </si>
-  <si>
-    <t>「保護自己」，不是博士給予我的指令，此時，「守護」之芯給予的能量，反而轉變成巨大的黑漩渦吞噬了我。</t>
-  </si>
-  <si>
-    <t>從博士的話語裡推測，那就是「空虛」，無法守護任何人的空虛──</t>
-  </si>
-  <si>
-    <t>…是在太空艙的角落。</t>
-  </si>
-  <si>
-    <t>沒錯…非常不可思議地，你保持完好無缺的模樣，沒有載入任何指令，也不受任何「愛之芯」影響。</t>
-  </si>
-  <si>
-    <t>在失去存在意義的我面前，你出現了，你成為最後一位「未暴走的機器人」。</t>
-  </si>
-  <si>
-    <t>從你身上，我得到了救贖，我又可以繼續守護某一個人</t>
   </si>
   <si>
     <t>我記得，那是我最初的指令。</t>
@@ -7164,1442 +7191,1422 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A349" s="2"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E350" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D352" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E352" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
-      <c r="N355" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="O355" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P355" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q355" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R355" s="1"/>
-      <c r="S355" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D356" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
       <c r="N356" s="2">
         <v>34.0</v>
       </c>
       <c r="O356" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P356" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q356" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R356" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S356" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q356" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N357" s="2">
         <v>34.0</v>
       </c>
       <c r="O357" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P357" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q357" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R357" s="1"/>
-      <c r="S357" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="Q357" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R357" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S357" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D358" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
       <c r="N358" s="2">
         <v>34.0</v>
       </c>
       <c r="O358" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P358" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q358" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R358" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S358" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q358" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
     </row>
     <row r="359">
       <c r="A359" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E359" s="1"/>
-      <c r="F359" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N359" s="2">
         <v>34.0</v>
       </c>
       <c r="O359" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P359" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q359" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R359" s="1"/>
-      <c r="S359" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="Q359" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R359" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S359" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D360" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
       <c r="N360" s="2">
         <v>34.0</v>
       </c>
       <c r="O360" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P360" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q360" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R360" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S360" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P360" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q360" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R360" s="1"/>
+      <c r="S360" s="1"/>
     </row>
     <row r="361">
       <c r="A361" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N361" s="2">
         <v>34.0</v>
       </c>
       <c r="O361" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P361" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q361" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R361" s="1"/>
-      <c r="S361" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="P361" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q361" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R361" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S361" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D362" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E362" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="N362" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O362" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q362" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R362" s="1"/>
+      <c r="S362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E363" s="1"/>
-      <c r="F363" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D364" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E364" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
     </row>
     <row r="365">
       <c r="A365" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E366" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E367" s="1"/>
-      <c r="F367" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E369" s="1"/>
-      <c r="F369" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D370" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E371" s="1"/>
-      <c r="F371" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D372" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E372" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D374" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E374" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E375" s="1"/>
-      <c r="F375" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D376" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E376" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D378" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E378" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
     </row>
     <row r="379">
       <c r="A379" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D380" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E380" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E381" s="1"/>
-      <c r="F381" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D382" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
     </row>
     <row r="383">
       <c r="A383" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E383" s="1"/>
-      <c r="F383" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D384" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E384" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
     </row>
     <row r="385">
       <c r="A385" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
     </row>
     <row r="387">
       <c r="A387" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D388" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
     </row>
     <row r="389">
       <c r="A389" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D390" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E390" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F390" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
     </row>
     <row r="391">
       <c r="A391" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D392" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
     </row>
     <row r="393">
       <c r="A393" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D394" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
     </row>
     <row r="395">
       <c r="A395" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E396" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
     </row>
     <row r="397">
       <c r="A397" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D398" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E399" s="1"/>
-      <c r="F399" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D400" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E400" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
     </row>
     <row r="401">
       <c r="A401" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D402" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E402" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
     </row>
     <row r="403">
       <c r="A403" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E404" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
     </row>
     <row r="405">
       <c r="A405" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C406" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D406" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
     </row>
     <row r="407">
       <c r="A407" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D408" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D410" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
     </row>
     <row r="411">
       <c r="A411" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D412" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
     </row>
     <row r="413">
       <c r="A413" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D414" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
     </row>
     <row r="415">
       <c r="A415" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D416" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
     </row>
     <row r="417">
       <c r="A417" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D418" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" s="2">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="420">
-      <c r="A420" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D420" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E420" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A420" s="2"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
     </row>
     <row r="421">
       <c r="A421" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
     </row>
     <row r="422">
       <c r="A422" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C422" s="5" t="s">
-        <v>22</v>
+      <c r="C422" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E422" s="12" t="s">
-        <v>232</v>
+        <v>192</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>30</v>
@@ -8607,35 +8614,35 @@
     </row>
     <row r="423">
       <c r="A423" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C424" s="1" t="s">
-        <v>35</v>
+      <c r="C424" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E424" s="2" t="s">
-        <v>233</v>
+      <c r="E424" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>30</v>
@@ -8643,7 +8650,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>18</v>
@@ -8659,7 +8666,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>27</v>
@@ -8671,7 +8678,7 @@
         <v>28</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>30</v>
@@ -8679,7 +8686,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>18</v>
@@ -8688,14 +8695,14 @@
         <v>33</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
     <row r="428">
       <c r="A428" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>27</v>
@@ -8707,7 +8714,7 @@
         <v>28</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>30</v>
@@ -8715,7 +8722,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>18</v>
@@ -8731,7 +8738,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>27</v>
@@ -8743,7 +8750,7 @@
         <v>28</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>30</v>
@@ -8751,7 +8758,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>18</v>
@@ -8767,7 +8774,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>27</v>
@@ -8779,7 +8786,7 @@
         <v>28</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>30</v>
@@ -8787,7 +8794,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>18</v>
@@ -8803,7 +8810,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>27</v>
@@ -8815,24 +8822,47 @@
         <v>28</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="435">
-      <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
-      <c r="D435" s="1"/>
+      <c r="A435" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
     <row r="436">
-      <c r="B436" s="1"/>
-      <c r="C436" s="5"/>
-      <c r="D436" s="5"/>
-      <c r="F436" s="1"/>
+      <c r="A436" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="437">
       <c r="B437" s="1"/>
@@ -8843,7 +8873,7 @@
     </row>
     <row r="438">
       <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
+      <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="F438" s="1"/>
     </row>
@@ -8860,41 +8890,18 @@
       <c r="D440" s="5"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="444">
-      <c r="N444" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="O444" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P444" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q444" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R444" s="1"/>
-      <c r="S444" s="1"/>
-    </row>
-    <row r="445">
-      <c r="N445" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="O445" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P445" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q445" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R445" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="S445" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="441">
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="5"/>
+      <c r="F442" s="1"/>
     </row>
     <row r="446">
       <c r="N446" s="2">
@@ -8904,10 +8911,10 @@
         <v>18</v>
       </c>
       <c r="P446" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q446" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
@@ -8919,14 +8926,14 @@
       <c r="O447" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P447" s="1" t="s">
-        <v>35</v>
+      <c r="P447" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q447" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R447" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="R447" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="S447" s="1" t="s">
         <v>30</v>
@@ -8943,7 +8950,7 @@
         <v>33</v>
       </c>
       <c r="Q448" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
@@ -8959,10 +8966,10 @@
         <v>35</v>
       </c>
       <c r="Q449" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R449" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S449" s="1" t="s">
         <v>30</v>
@@ -8976,10 +8983,10 @@
         <v>18</v>
       </c>
       <c r="P450" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q450" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
@@ -8991,14 +8998,14 @@
       <c r="O451" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P451" s="5" t="s">
-        <v>22</v>
+      <c r="P451" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q451" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="R451" s="12" t="s">
-        <v>183</v>
+      <c r="R451" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="S451" s="1" t="s">
         <v>30</v>
@@ -9034,7 +9041,7 @@
         <v>179</v>
       </c>
       <c r="R453" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S453" s="1" t="s">
         <v>30</v>
@@ -9048,10 +9055,10 @@
         <v>18</v>
       </c>
       <c r="P454" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q454" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
@@ -9069,8 +9076,8 @@
       <c r="Q455" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="R455" s="2" t="s">
-        <v>185</v>
+      <c r="R455" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="S455" s="1" t="s">
         <v>30</v>
@@ -9099,14 +9106,14 @@
       <c r="O457" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P457" s="1" t="s">
-        <v>35</v>
+      <c r="P457" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q457" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R457" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S457" s="1" t="s">
         <v>30</v>
@@ -9123,7 +9130,7 @@
         <v>33</v>
       </c>
       <c r="Q458" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
@@ -9139,10 +9146,10 @@
         <v>35</v>
       </c>
       <c r="Q459" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R459" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S459" s="1" t="s">
         <v>30</v>
@@ -9156,10 +9163,10 @@
         <v>18</v>
       </c>
       <c r="P460" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q460" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
@@ -9171,14 +9178,14 @@
       <c r="O461" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P461" s="5" t="s">
-        <v>22</v>
+      <c r="P461" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q461" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R461" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S461" s="1" t="s">
         <v>30</v>
@@ -9192,10 +9199,10 @@
         <v>18</v>
       </c>
       <c r="P462" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q462" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
@@ -9207,14 +9214,14 @@
       <c r="O463" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P463" s="1" t="s">
-        <v>35</v>
+      <c r="P463" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q463" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R463" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S463" s="1" t="s">
         <v>30</v>
@@ -9250,7 +9257,7 @@
         <v>28</v>
       </c>
       <c r="R465" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S465" s="1" t="s">
         <v>30</v>
@@ -9267,7 +9274,7 @@
         <v>33</v>
       </c>
       <c r="Q466" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
@@ -9286,7 +9293,7 @@
         <v>28</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S467" s="1" t="s">
         <v>30</v>
@@ -9319,10 +9326,10 @@
         <v>35</v>
       </c>
       <c r="Q469" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="R469" s="12" t="s">
-        <v>193</v>
+        <v>28</v>
+      </c>
+      <c r="R469" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="S469" s="1" t="s">
         <v>30</v>
@@ -9336,10 +9343,10 @@
         <v>18</v>
       </c>
       <c r="P470" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q470" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
@@ -9351,14 +9358,14 @@
       <c r="O471" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P471" s="5" t="s">
-        <v>22</v>
+      <c r="P471" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q471" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R471" s="2" t="s">
-        <v>239</v>
+        <v>192</v>
+      </c>
+      <c r="R471" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="S471" s="1" t="s">
         <v>30</v>
@@ -9372,10 +9379,10 @@
         <v>18</v>
       </c>
       <c r="P472" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q472" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
@@ -9387,14 +9394,14 @@
       <c r="O473" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P473" s="1" t="s">
-        <v>35</v>
+      <c r="P473" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q473" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R473" s="2" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="S473" s="1" t="s">
         <v>30</v>
@@ -9411,7 +9418,7 @@
         <v>33</v>
       </c>
       <c r="Q474" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
@@ -9427,10 +9434,10 @@
         <v>35</v>
       </c>
       <c r="Q475" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R475" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S475" s="1" t="s">
         <v>30</v>
@@ -9444,10 +9451,10 @@
         <v>18</v>
       </c>
       <c r="P476" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q476" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
@@ -9459,14 +9466,14 @@
       <c r="O477" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P477" s="5" t="s">
-        <v>22</v>
+      <c r="P477" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q477" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S477" s="1" t="s">
         <v>30</v>
@@ -9480,10 +9487,10 @@
         <v>18</v>
       </c>
       <c r="P478" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q478" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
@@ -9495,14 +9502,14 @@
       <c r="O479" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P479" s="1" t="s">
-        <v>35</v>
+      <c r="P479" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q479" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R479" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="S479" s="1" t="s">
         <v>30</v>
@@ -9519,7 +9526,7 @@
         <v>33</v>
       </c>
       <c r="Q480" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
@@ -9535,10 +9542,10 @@
         <v>35</v>
       </c>
       <c r="Q481" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R481" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S481" s="1" t="s">
         <v>30</v>
@@ -9552,10 +9559,10 @@
         <v>18</v>
       </c>
       <c r="P482" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q482" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
@@ -9567,14 +9574,14 @@
       <c r="O483" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P483" s="5" t="s">
-        <v>22</v>
+      <c r="P483" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q483" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R483" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S483" s="1" t="s">
         <v>30</v>
@@ -9588,10 +9595,10 @@
         <v>18</v>
       </c>
       <c r="P484" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q484" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
@@ -9603,14 +9610,14 @@
       <c r="O485" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P485" s="1" t="s">
-        <v>35</v>
+      <c r="P485" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q485" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R485" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S485" s="1" t="s">
         <v>30</v>
@@ -9627,7 +9634,7 @@
         <v>33</v>
       </c>
       <c r="Q486" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
@@ -9646,7 +9653,7 @@
         <v>179</v>
       </c>
       <c r="R487" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S487" s="1" t="s">
         <v>30</v>
@@ -9679,10 +9686,10 @@
         <v>35</v>
       </c>
       <c r="Q489" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R489" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S489" s="1" t="s">
         <v>30</v>
@@ -9696,10 +9703,10 @@
         <v>18</v>
       </c>
       <c r="P490" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q490" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
@@ -9711,14 +9718,14 @@
       <c r="O491" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P491" s="5" t="s">
-        <v>22</v>
+      <c r="P491" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q491" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R491" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S491" s="1" t="s">
         <v>30</v>
@@ -9732,10 +9739,10 @@
         <v>18</v>
       </c>
       <c r="P492" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q492" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
@@ -9754,7 +9761,7 @@
         <v>179</v>
       </c>
       <c r="R493" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S493" s="1" t="s">
         <v>30</v>
@@ -9783,14 +9790,14 @@
       <c r="O495" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P495" s="1" t="s">
-        <v>35</v>
+      <c r="P495" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q495" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R495" s="2" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="S495" s="1" t="s">
         <v>30</v>
@@ -9807,7 +9814,7 @@
         <v>33</v>
       </c>
       <c r="Q496" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
@@ -9823,10 +9830,10 @@
         <v>35</v>
       </c>
       <c r="Q497" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R497" s="2" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="S497" s="1" t="s">
         <v>30</v>
@@ -9862,7 +9869,7 @@
         <v>179</v>
       </c>
       <c r="R499" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S499" s="1" t="s">
         <v>30</v>
@@ -9876,10 +9883,10 @@
         <v>18</v>
       </c>
       <c r="P500" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q500" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
@@ -9891,14 +9898,14 @@
       <c r="O501" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P501" s="5" t="s">
-        <v>22</v>
+      <c r="P501" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q501" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R501" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S501" s="1" t="s">
         <v>30</v>
@@ -9912,10 +9919,10 @@
         <v>18</v>
       </c>
       <c r="P502" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q502" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
@@ -9927,14 +9934,14 @@
       <c r="O503" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P503" s="1" t="s">
-        <v>35</v>
+      <c r="P503" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q503" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R503" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S503" s="1" t="s">
         <v>30</v>
@@ -9970,7 +9977,7 @@
         <v>179</v>
       </c>
       <c r="R505" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S505" s="1" t="s">
         <v>30</v>
@@ -9987,7 +9994,7 @@
         <v>33</v>
       </c>
       <c r="Q506" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R506" s="1"/>
       <c r="S506" s="1"/>
@@ -10006,7 +10013,7 @@
         <v>179</v>
       </c>
       <c r="R507" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S507" s="1" t="s">
         <v>30</v>
@@ -10020,10 +10027,10 @@
         <v>18</v>
       </c>
       <c r="P508" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q508" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R508" s="1"/>
       <c r="S508" s="1"/>
@@ -10042,7 +10049,7 @@
         <v>179</v>
       </c>
       <c r="R509" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S509" s="1" t="s">
         <v>30</v>
@@ -10071,14 +10078,14 @@
       <c r="O511" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P511" s="5" t="s">
-        <v>22</v>
+      <c r="P511" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q511" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R511" s="2" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="S511" s="1" t="s">
         <v>30</v>
@@ -10092,10 +10099,10 @@
         <v>18</v>
       </c>
       <c r="P512" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q512" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R512" s="1"/>
       <c r="S512" s="1"/>
@@ -10107,14 +10114,14 @@
       <c r="O513" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P513" s="1" t="s">
-        <v>35</v>
+      <c r="P513" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q513" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R513" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S513" s="1" t="s">
         <v>30</v>
@@ -10131,7 +10138,7 @@
         <v>33</v>
       </c>
       <c r="Q514" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R514" s="1"/>
       <c r="S514" s="1"/>
@@ -10147,7 +10154,7 @@
         <v>35</v>
       </c>
       <c r="Q515" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R515" s="2" t="s">
         <v>255</v>
@@ -10164,10 +10171,10 @@
         <v>18</v>
       </c>
       <c r="P516" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q516" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R516" s="1"/>
       <c r="S516" s="1"/>
@@ -10179,11 +10186,11 @@
       <c r="O517" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P517" s="5" t="s">
-        <v>22</v>
+      <c r="P517" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q517" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R517" s="2" t="s">
         <v>256</v>
@@ -10200,10 +10207,10 @@
         <v>18</v>
       </c>
       <c r="P518" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q518" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R518" s="1"/>
       <c r="S518" s="1"/>
@@ -10215,8 +10222,8 @@
       <c r="O519" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P519" s="1" t="s">
-        <v>35</v>
+      <c r="P519" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q519" s="5" t="s">
         <v>179</v>
@@ -10239,7 +10246,7 @@
         <v>33</v>
       </c>
       <c r="Q520" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R520" s="1"/>
       <c r="S520" s="1"/>
@@ -10294,7 +10301,7 @@
         <v>179</v>
       </c>
       <c r="R523" s="2" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="S523" s="1" t="s">
         <v>30</v>
@@ -10311,7 +10318,7 @@
         <v>33</v>
       </c>
       <c r="Q524" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R524" s="1"/>
       <c r="S524" s="1"/>
@@ -10327,10 +10334,10 @@
         <v>35</v>
       </c>
       <c r="Q525" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R525" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S525" s="1" t="s">
         <v>30</v>
@@ -10344,10 +10351,10 @@
         <v>18</v>
       </c>
       <c r="P526" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q526" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R526" s="1"/>
       <c r="S526" s="1"/>
@@ -10359,14 +10366,14 @@
       <c r="O527" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P527" s="5" t="s">
-        <v>22</v>
+      <c r="P527" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q527" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R527" s="2" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="S527" s="1" t="s">
         <v>30</v>
@@ -10380,10 +10387,10 @@
         <v>18</v>
       </c>
       <c r="P528" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q528" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R528" s="1"/>
       <c r="S528" s="1"/>
@@ -10395,14 +10402,14 @@
       <c r="O529" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P529" s="1" t="s">
-        <v>35</v>
+      <c r="P529" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q529" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R529" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S529" s="1" t="s">
         <v>30</v>
@@ -10416,10 +10423,10 @@
         <v>18</v>
       </c>
       <c r="P530" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q530" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R530" s="1"/>
       <c r="S530" s="1"/>
@@ -10431,14 +10438,14 @@
       <c r="O531" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P531" s="5" t="s">
-        <v>22</v>
+      <c r="P531" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q531" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R531" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S531" s="1" t="s">
         <v>30</v>
@@ -10452,10 +10459,10 @@
         <v>18</v>
       </c>
       <c r="P532" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q532" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R532" s="1"/>
       <c r="S532" s="1"/>
@@ -10467,14 +10474,14 @@
       <c r="O533" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P533" s="1" t="s">
-        <v>35</v>
+      <c r="P533" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q533" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R533" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S533" s="1" t="s">
         <v>30</v>
@@ -10491,7 +10498,7 @@
         <v>33</v>
       </c>
       <c r="Q534" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R534" s="1"/>
       <c r="S534" s="1"/>
@@ -10507,10 +10514,10 @@
         <v>35</v>
       </c>
       <c r="Q535" s="5" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="R535" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S535" s="1" t="s">
         <v>30</v>
@@ -10524,10 +10531,10 @@
         <v>18</v>
       </c>
       <c r="P536" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q536" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R536" s="1"/>
       <c r="S536" s="1"/>
@@ -10539,14 +10546,14 @@
       <c r="O537" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P537" s="5" t="s">
-        <v>22</v>
+      <c r="P537" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q537" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R537" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S537" s="1" t="s">
         <v>30</v>
@@ -10560,10 +10567,10 @@
         <v>18</v>
       </c>
       <c r="P538" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q538" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R538" s="1"/>
       <c r="S538" s="1"/>
@@ -10575,14 +10582,14 @@
       <c r="O539" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P539" s="1" t="s">
-        <v>35</v>
+      <c r="P539" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q539" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R539" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S539" s="1" t="s">
         <v>30</v>
@@ -10599,7 +10606,7 @@
         <v>33</v>
       </c>
       <c r="Q540" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R540" s="1"/>
       <c r="S540" s="1"/>
@@ -10615,10 +10622,10 @@
         <v>35</v>
       </c>
       <c r="Q541" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R541" s="2" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="S541" s="1" t="s">
         <v>30</v>
@@ -10632,10 +10639,10 @@
         <v>18</v>
       </c>
       <c r="P542" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q542" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R542" s="1"/>
       <c r="S542" s="1"/>
@@ -10647,14 +10654,14 @@
       <c r="O543" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P543" s="5" t="s">
-        <v>22</v>
+      <c r="P543" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q543" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R543" s="12" t="s">
-        <v>261</v>
+      <c r="R543" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="S543" s="1" t="s">
         <v>30</v>
@@ -10668,10 +10675,10 @@
         <v>18</v>
       </c>
       <c r="P544" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q544" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R544" s="1"/>
       <c r="S544" s="1"/>
@@ -10683,14 +10690,14 @@
       <c r="O545" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P545" s="1" t="s">
-        <v>35</v>
+      <c r="P545" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q545" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R545" s="2" t="s">
-        <v>222</v>
+        <v>28</v>
+      </c>
+      <c r="R545" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="S545" s="1" t="s">
         <v>30</v>
@@ -10707,7 +10714,7 @@
         <v>33</v>
       </c>
       <c r="Q546" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R546" s="1"/>
       <c r="S546" s="1"/>
@@ -10723,10 +10730,10 @@
         <v>35</v>
       </c>
       <c r="Q547" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R547" s="2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="S547" s="1" t="s">
         <v>30</v>
@@ -10740,10 +10747,10 @@
         <v>18</v>
       </c>
       <c r="P548" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q548" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R548" s="1"/>
       <c r="S548" s="1"/>
@@ -10755,14 +10762,14 @@
       <c r="O549" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P549" s="5" t="s">
-        <v>22</v>
+      <c r="P549" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q549" s="5" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="R549" s="2" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="S549" s="1" t="s">
         <v>30</v>
@@ -10776,10 +10783,10 @@
         <v>18</v>
       </c>
       <c r="P550" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q550" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R550" s="1"/>
       <c r="S550" s="1"/>
@@ -10791,14 +10798,14 @@
       <c r="O551" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P551" s="1" t="s">
-        <v>35</v>
+      <c r="P551" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q551" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R551" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S551" s="1" t="s">
         <v>30</v>
@@ -10815,7 +10822,7 @@
         <v>33</v>
       </c>
       <c r="Q552" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R552" s="1"/>
       <c r="S552" s="1"/>
@@ -10831,10 +10838,10 @@
         <v>35</v>
       </c>
       <c r="Q553" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R553" s="2" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="S553" s="1" t="s">
         <v>30</v>
@@ -10867,10 +10874,10 @@
         <v>35</v>
       </c>
       <c r="Q555" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="R555" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S555" s="1" t="s">
         <v>30</v>
@@ -10884,10 +10891,10 @@
         <v>18</v>
       </c>
       <c r="P556" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q556" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R556" s="1"/>
       <c r="S556" s="1"/>
@@ -10899,14 +10906,14 @@
       <c r="O557" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P557" s="5" t="s">
-        <v>22</v>
+      <c r="P557" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q557" s="5" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="R557" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S557" s="1" t="s">
         <v>30</v>
@@ -10920,10 +10927,10 @@
         <v>18</v>
       </c>
       <c r="P558" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q558" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R558" s="1"/>
       <c r="S558" s="1"/>
@@ -10935,14 +10942,14 @@
       <c r="O559" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P559" s="1" t="s">
-        <v>35</v>
+      <c r="P559" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q559" s="5" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="R559" s="2" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="S559" s="1" t="s">
         <v>30</v>
@@ -10959,7 +10966,7 @@
         <v>33</v>
       </c>
       <c r="Q560" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R560" s="1"/>
       <c r="S560" s="1"/>
@@ -10975,10 +10982,10 @@
         <v>35</v>
       </c>
       <c r="Q561" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R561" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S561" s="1" t="s">
         <v>30</v>
@@ -11011,10 +11018,10 @@
         <v>35</v>
       </c>
       <c r="Q563" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R563" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S563" s="1" t="s">
         <v>30</v>
@@ -11028,10 +11035,10 @@
         <v>18</v>
       </c>
       <c r="P564" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q564" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R564" s="1"/>
       <c r="S564" s="1"/>
@@ -11043,14 +11050,14 @@
       <c r="O565" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P565" s="5" t="s">
-        <v>22</v>
+      <c r="P565" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q565" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R565" s="12" t="s">
-        <v>266</v>
+        <v>192</v>
+      </c>
+      <c r="R565" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="S565" s="1" t="s">
         <v>30</v>
@@ -11064,10 +11071,10 @@
         <v>18</v>
       </c>
       <c r="P566" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q566" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R566" s="1"/>
       <c r="S566" s="1"/>
@@ -11079,14 +11086,14 @@
       <c r="O567" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P567" s="1" t="s">
-        <v>35</v>
+      <c r="P567" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q567" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R567" s="2" t="s">
-        <v>267</v>
+      <c r="R567" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="S567" s="1" t="s">
         <v>30</v>
@@ -11103,7 +11110,7 @@
         <v>33</v>
       </c>
       <c r="Q568" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R568" s="1"/>
       <c r="S568" s="1"/>
@@ -11122,7 +11129,7 @@
         <v>28</v>
       </c>
       <c r="R569" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S569" s="1" t="s">
         <v>30</v>
@@ -11158,9 +11165,45 @@
         <v>28</v>
       </c>
       <c r="R571" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S571" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="N572" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q572" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R572" s="1"/>
+      <c r="S572" s="1"/>
+    </row>
+    <row r="573">
+      <c r="N573" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q573" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R573" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="S571" s="1" t="s">
+      <c r="S573" s="1" t="s">
         <v>30</v>
       </c>
     </row>
